--- a/Code/Results/Cases/Case_5_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.70556292816309</v>
+        <v>3.457475340936298</v>
       </c>
       <c r="C2">
-        <v>1.16952685450633</v>
+        <v>0.8906641763708194</v>
       </c>
       <c r="D2">
-        <v>0.03951410747612272</v>
+        <v>0.02402073798449322</v>
       </c>
       <c r="E2">
-        <v>0.2445371973312689</v>
+        <v>0.1080868225642284</v>
       </c>
       <c r="F2">
-        <v>2.538287125235712</v>
+        <v>2.889986989092989</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.310591998168462</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2339578809472442</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9836325959586816</v>
       </c>
       <c r="L2">
-        <v>0.5575669759541881</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.246236590842287</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.18850198414367</v>
+        <v>2.998190794112304</v>
       </c>
       <c r="C3">
-        <v>1.004674384580539</v>
+        <v>0.7685733284614287</v>
       </c>
       <c r="D3">
-        <v>0.0377483306201718</v>
+        <v>0.02116552350527101</v>
       </c>
       <c r="E3">
-        <v>0.2095991595330702</v>
+        <v>0.09595754172458371</v>
       </c>
       <c r="F3">
-        <v>2.231531346294261</v>
+        <v>2.635114550207859</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.175090125335799</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2080501082042758</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8517674523420595</v>
       </c>
       <c r="L3">
-        <v>0.4776886672541849</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.274061976153732</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.876421936968143</v>
+        <v>2.722058130854521</v>
       </c>
       <c r="C4">
-        <v>0.9053863106247775</v>
+        <v>0.6951694064064213</v>
       </c>
       <c r="D4">
-        <v>0.03683321993103306</v>
+        <v>0.019428168850677</v>
       </c>
       <c r="E4">
-        <v>0.1887480019983414</v>
+        <v>0.08870281909450028</v>
       </c>
       <c r="F4">
-        <v>2.05020407758299</v>
+        <v>2.485265327737594</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.095805307944943</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1926400857194821</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7724857716631561</v>
       </c>
       <c r="L4">
-        <v>0.4298326190397574</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.2932893655464</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.750379289898433</v>
+        <v>2.610811886947147</v>
       </c>
       <c r="C5">
-        <v>0.8653293751283684</v>
+        <v>0.6655938436182396</v>
       </c>
       <c r="D5">
-        <v>0.03649787756664935</v>
+        <v>0.0187236960431818</v>
       </c>
       <c r="E5">
-        <v>0.1803793962979015</v>
+        <v>0.08578951701128901</v>
       </c>
       <c r="F5">
-        <v>1.977854359958215</v>
+        <v>2.42569975956178</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.064363262339853</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1864712905846915</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7405441825775085</v>
       </c>
       <c r="L5">
-        <v>0.4105832540405316</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.301628588241101</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.729512289639388</v>
+        <v>2.592411461644815</v>
       </c>
       <c r="C6">
-        <v>0.8587001063723392</v>
+        <v>0.6607016912287804</v>
       </c>
       <c r="D6">
-        <v>0.03644432957950983</v>
+        <v>0.01860691885383758</v>
       </c>
       <c r="E6">
-        <v>0.1789969345085751</v>
+        <v>0.08530821753425144</v>
       </c>
       <c r="F6">
-        <v>1.96592782781876</v>
+        <v>2.415894783666275</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.059191516005228</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.18545327657705</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7352608633931368</v>
       </c>
       <c r="L6">
-        <v>0.4074008827277709</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.303042788716382</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.874717775799866</v>
+        <v>2.720552887915858</v>
       </c>
       <c r="C7">
-        <v>0.9048445559705272</v>
+        <v>0.6947692441400193</v>
       </c>
       <c r="D7">
-        <v>0.03682855138139018</v>
+        <v>0.01941865441722257</v>
       </c>
       <c r="E7">
-        <v>0.1886346483259587</v>
+        <v>0.08866336172248168</v>
       </c>
       <c r="F7">
-        <v>2.049222376073473</v>
+        <v>2.484456150240433</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.095377904282387</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1925564598684559</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7720535845288765</v>
       </c>
       <c r="L7">
-        <v>0.4295720516657155</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.293399834541688</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.526016764987503</v>
+        <v>3.297771691984224</v>
       </c>
       <c r="C8">
-        <v>1.112232379453758</v>
+        <v>0.8482083974462284</v>
       </c>
       <c r="D8">
-        <v>0.03886701137025739</v>
+        <v>0.02303270230189369</v>
       </c>
       <c r="E8">
-        <v>0.2323513471878442</v>
+        <v>0.1038612325432702</v>
       </c>
       <c r="F8">
-        <v>2.430918328969511</v>
+        <v>2.800619691399618</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.262984184235719</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2249126607100891</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9377797992210901</v>
       </c>
       <c r="L8">
-        <v>0.5297482019996522</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.255364056986892</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.85769819801294</v>
+        <v>4.486243060118568</v>
       </c>
       <c r="C9">
-        <v>1.538511554027934</v>
+        <v>1.164302202399085</v>
       </c>
       <c r="D9">
-        <v>0.04446434883458039</v>
+        <v>0.03026834513848797</v>
       </c>
       <c r="E9">
-        <v>0.3240282306192341</v>
+        <v>0.1354680031498461</v>
       </c>
       <c r="F9">
-        <v>3.24665018322446</v>
+        <v>3.48203601017326</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.62874657989282</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2930315167688207</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.279039928132192</v>
       </c>
       <c r="L9">
-        <v>0.7380621591190106</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.199543689291204</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.888397214521433</v>
+        <v>5.409818325485503</v>
       </c>
       <c r="C10">
-        <v>1.870640593935434</v>
+        <v>1.410325843321232</v>
       </c>
       <c r="D10">
-        <v>0.04998039861258974</v>
+        <v>0.03571317697950604</v>
       </c>
       <c r="E10">
-        <v>0.3969521730419174</v>
+        <v>0.1602280039416542</v>
       </c>
       <c r="F10">
-        <v>3.90572225254067</v>
+        <v>4.034021238332542</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.929913809541162</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3470779551396248</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.544336698643448</v>
       </c>
       <c r="L10">
-        <v>0.902341195534305</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1.172797637568323</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.373912816555219</v>
+        <v>5.845158982301257</v>
       </c>
       <c r="C11">
-        <v>2.027785505610041</v>
+        <v>1.526452887898017</v>
       </c>
       <c r="D11">
-        <v>0.05291542804230431</v>
+        <v>0.03822842218571765</v>
       </c>
       <c r="E11">
-        <v>0.4318771208949741</v>
+        <v>0.1719426885766921</v>
       </c>
       <c r="F11">
-        <v>4.22369012913299</v>
+        <v>4.29998734952423</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.076672548511894</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3728410796623365</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.669431005390535</v>
       </c>
       <c r="L11">
-        <v>0.9806244503111401</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1.164484121909652</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.5606982939575</v>
+        <v>6.012617026466046</v>
       </c>
       <c r="C12">
-        <v>2.088362914777235</v>
+        <v>1.571153134275562</v>
       </c>
       <c r="D12">
-        <v>0.05410076535358854</v>
+        <v>0.03918741042315332</v>
       </c>
       <c r="E12">
-        <v>0.4454101821167669</v>
+        <v>0.1764551734669197</v>
       </c>
       <c r="F12">
-        <v>4.347236603599583</v>
+        <v>4.403207623127741</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.133927094761248</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3827967503356575</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.717558059305603</v>
       </c>
       <c r="L12">
-        <v>1.010893784115765</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1.161966011373977</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.520330656327587</v>
+        <v>5.976428748470084</v>
       </c>
       <c r="C13">
-        <v>2.075265307588268</v>
+        <v>1.561491745411274</v>
       </c>
       <c r="D13">
-        <v>0.05384196407035091</v>
+        <v>0.03898056746744061</v>
       </c>
       <c r="E13">
-        <v>0.442480897817056</v>
+        <v>0.17547972879062</v>
       </c>
       <c r="F13">
-        <v>4.320479544640591</v>
+        <v>4.38085940954474</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.121516587454749</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3806431968800723</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.707157225483684</v>
       </c>
       <c r="L13">
-        <v>1.004344870421676</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1.162478966660871</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.389217576201645</v>
+        <v>5.85888103520432</v>
       </c>
       <c r="C14">
-        <v>2.032746522103764</v>
+        <v>1.530115106237361</v>
       </c>
       <c r="D14">
-        <v>0.05301138314327858</v>
+        <v>0.03830718173985304</v>
       </c>
       <c r="E14">
-        <v>0.4329839664610375</v>
+        <v>0.1723123300674629</v>
       </c>
       <c r="F14">
-        <v>4.23378807430916</v>
+        <v>4.30842683197767</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.081347463133767</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3736559435765088</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.673374512467248</v>
       </c>
       <c r="L14">
-        <v>0.9831014612238818</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1.164263849071318</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.309306465588804</v>
+        <v>5.787232324655747</v>
       </c>
       <c r="C15">
-        <v>2.006848451296264</v>
+        <v>1.510994384805031</v>
       </c>
       <c r="D15">
-        <v>0.05251267441074958</v>
+        <v>0.03789559509083773</v>
       </c>
       <c r="E15">
-        <v>0.4272087462220071</v>
+        <v>0.1703825273320305</v>
       </c>
       <c r="F15">
-        <v>4.181113227833322</v>
+        <v>4.264397869229072</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.056970653775423</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3694030484164017</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.65278412144157</v>
       </c>
       <c r="L15">
-        <v>0.9701744534285126</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1.165441655764269</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.857046288122433</v>
+        <v>5.381707944692891</v>
       </c>
       <c r="C16">
-        <v>1.860508860105369</v>
+        <v>1.402831209320539</v>
       </c>
       <c r="D16">
-        <v>0.04979818097414324</v>
+        <v>0.03554965390104314</v>
       </c>
       <c r="E16">
-        <v>0.3947095231576085</v>
+        <v>0.1594724445277578</v>
       </c>
       <c r="F16">
-        <v>3.885350561995381</v>
+        <v>4.016968929971654</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.920541642752909</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3454204568459431</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.536260256277529</v>
       </c>
       <c r="L16">
-        <v>0.897305959364445</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1.173424701082098</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.584214827458311</v>
+        <v>5.137102841208844</v>
       </c>
       <c r="C17">
-        <v>1.772415914339206</v>
+        <v>1.337634370168814</v>
       </c>
       <c r="D17">
-        <v>0.04825021637898885</v>
+        <v>0.03412098570079536</v>
       </c>
       <c r="E17">
-        <v>0.3752573772771157</v>
+        <v>0.152902670677598</v>
       </c>
       <c r="F17">
-        <v>3.708905434130997</v>
+        <v>3.869230174169303</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.83952731206378</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3310296105636183</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.465987267313906</v>
       </c>
       <c r="L17">
-        <v>0.8535879633682981</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1.179359290957066</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.428818706640698</v>
+        <v>4.997814769827016</v>
       </c>
       <c r="C18">
-        <v>1.722303484154395</v>
+        <v>1.300522880514393</v>
       </c>
       <c r="D18">
-        <v>0.04739904888033664</v>
+        <v>0.0333027958811698</v>
       </c>
       <c r="E18">
-        <v>0.3642299653652969</v>
+        <v>0.1491655982220301</v>
       </c>
       <c r="F18">
-        <v>3.609090700131958</v>
+        <v>3.785628861034866</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.793829021826099</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3228610910436203</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.425974775516664</v>
       </c>
       <c r="L18">
-        <v>0.8287688537124467</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1.18313021179415</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.376452109819468</v>
+        <v>4.950883372468013</v>
       </c>
       <c r="C19">
-        <v>1.705426355343945</v>
+        <v>1.288020855126774</v>
       </c>
       <c r="D19">
-        <v>0.04711724170742571</v>
+        <v>0.0330263512434712</v>
       </c>
       <c r="E19">
-        <v>0.3605223843506309</v>
+        <v>0.1479071276182751</v>
       </c>
       <c r="F19">
-        <v>3.575567729106325</v>
+        <v>3.757548631198944</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.778503138027887</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3201131907566861</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.412493654239654</v>
       </c>
       <c r="L19">
-        <v>0.820418437385996</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.184466262176628</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.613096343803022</v>
+        <v>5.162993516150777</v>
       </c>
       <c r="C20">
-        <v>1.781734661267251</v>
+        <v>1.344533718514242</v>
       </c>
       <c r="D20">
-        <v>0.04841086102943137</v>
+        <v>0.03427269648908293</v>
       </c>
       <c r="E20">
-        <v>0.3773110632307279</v>
+        <v>0.1535976421441916</v>
       </c>
       <c r="F20">
-        <v>3.727511770436166</v>
+        <v>3.884812525051245</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.848056535747929</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3325500836879201</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.473425031552964</v>
       </c>
       <c r="L20">
-        <v>0.8582072857378051</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1.178690032151678</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.427644315113184</v>
+        <v>5.893333311794038</v>
       </c>
       <c r="C21">
-        <v>2.045204500605053</v>
+        <v>1.539310441354758</v>
       </c>
       <c r="D21">
-        <v>0.05325322481061079</v>
+        <v>0.03850478571240501</v>
       </c>
       <c r="E21">
-        <v>0.4357645924832312</v>
+        <v>0.1732404979101148</v>
       </c>
       <c r="F21">
-        <v>4.259161554779183</v>
+        <v>4.329630839164309</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.093098034586859</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3757025811366503</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.683275706980098</v>
       </c>
       <c r="L21">
-        <v>0.9893231741449569</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1.163721819537983</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.977413089923061</v>
+        <v>6.386075659435903</v>
       </c>
       <c r="C22">
-        <v>2.223756627073215</v>
+        <v>1.670907642034251</v>
       </c>
       <c r="D22">
-        <v>0.05685671506140721</v>
+        <v>0.04130929025303232</v>
       </c>
       <c r="E22">
-        <v>0.4757956763904829</v>
+        <v>0.1865302234256419</v>
       </c>
       <c r="F22">
-        <v>4.625244933458703</v>
+        <v>4.635160049228318</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.26320998689782</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4050873426685655</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.824906953181753</v>
       </c>
       <c r="L22">
-        <v>1.078729535017544</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>1.15765633580709</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.682191849471963</v>
+        <v>6.121522266883346</v>
       </c>
       <c r="C23">
-        <v>2.127801731825684</v>
+        <v>1.600233280005511</v>
       </c>
       <c r="D23">
-        <v>0.05488839941239121</v>
+        <v>0.03980856694720103</v>
       </c>
       <c r="E23">
-        <v>0.4542415142234759</v>
+        <v>0.1793915917299742</v>
       </c>
       <c r="F23">
-        <v>4.427953297153323</v>
+        <v>4.47060042112409</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.171400236026273</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3892845711801272</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.748859773524273</v>
       </c>
       <c r="L23">
-        <v>1.030627779557634</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>1.160524999810278</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.600034507055227</v>
+        <v>5.151284203063028</v>
       </c>
       <c r="C24">
-        <v>1.777520008878639</v>
+        <v>1.341413376218554</v>
       </c>
       <c r="D24">
-        <v>0.0483381137191472</v>
+        <v>0.03420409823939252</v>
       </c>
       <c r="E24">
-        <v>0.376382110311809</v>
+        <v>0.1532833218648761</v>
       </c>
       <c r="F24">
-        <v>3.719094819936913</v>
+        <v>3.877763610871142</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.844197759386901</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3318623530646931</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.470061217592445</v>
       </c>
       <c r="L24">
-        <v>0.8561179173986773</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>1.178991491293743</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.48981606077416</v>
+        <v>4.15715854661596</v>
       </c>
       <c r="C25">
-        <v>1.42043805049741</v>
+        <v>1.076733357276339</v>
       </c>
       <c r="D25">
-        <v>0.04273897864977982</v>
+        <v>0.028291383765783</v>
       </c>
       <c r="E25">
-        <v>0.298408582526875</v>
+        <v>0.1266826101446199</v>
       </c>
       <c r="F25">
-        <v>3.017010884393329</v>
+        <v>3.289795694387919</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.524903213172095</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.273994004290472</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.184535042820357</v>
       </c>
       <c r="L25">
-        <v>0.6800628867635439</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.212367276622018</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_5/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.457475340936298</v>
+        <v>1.01942559813395</v>
       </c>
       <c r="C2">
-        <v>0.8906641763708194</v>
+        <v>0.1273511953257369</v>
       </c>
       <c r="D2">
-        <v>0.02402073798449322</v>
+        <v>0.0701085465722997</v>
       </c>
       <c r="E2">
-        <v>0.1080868225642284</v>
+        <v>0.05741213495999808</v>
       </c>
       <c r="F2">
-        <v>2.889986989092989</v>
+        <v>0.6156573393350371</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2339578809472442</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9836325959586816</v>
+        <v>0.8438568517780141</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1482480226074472</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2158515529872993</v>
       </c>
       <c r="N2">
-        <v>1.246236590842287</v>
+        <v>0.9821341873214688</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.929367056215369</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.998190794112304</v>
+        <v>0.8881987070050741</v>
       </c>
       <c r="C3">
-        <v>0.7685733284614287</v>
+        <v>0.1257173893578596</v>
       </c>
       <c r="D3">
-        <v>0.02116552350527101</v>
+        <v>0.06464038686127083</v>
       </c>
       <c r="E3">
-        <v>0.09595754172458371</v>
+        <v>0.05646482117067997</v>
       </c>
       <c r="F3">
-        <v>2.635114550207859</v>
+        <v>0.5898742027532364</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2080501082042758</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8517674523420595</v>
+        <v>0.7337021563859736</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1346243956156385</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1895840267461892</v>
       </c>
       <c r="N3">
-        <v>1.274061976153732</v>
+        <v>1.026754031135614</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.891629684954552</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.722058130854521</v>
+        <v>0.8080062476840908</v>
       </c>
       <c r="C4">
-        <v>0.6951694064064213</v>
+        <v>0.1247284170669332</v>
       </c>
       <c r="D4">
-        <v>0.019428168850677</v>
+        <v>0.06126547355975731</v>
       </c>
       <c r="E4">
-        <v>0.08870281909450028</v>
+        <v>0.05595436409312704</v>
       </c>
       <c r="F4">
-        <v>2.485265327737594</v>
+        <v>0.5750513701978548</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1926400857194821</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7724857716631561</v>
+        <v>0.6661731351188251</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1264087132189005</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1735793136793831</v>
       </c>
       <c r="N4">
-        <v>1.2932893655464</v>
+        <v>1.055313548735615</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.871719921677084</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.610811886947147</v>
+        <v>0.7754102231480147</v>
       </c>
       <c r="C5">
-        <v>0.6655938436182396</v>
+        <v>0.1243288633788495</v>
       </c>
       <c r="D5">
-        <v>0.0187236960431818</v>
+        <v>0.05988556567550063</v>
       </c>
       <c r="E5">
-        <v>0.08578951701128901</v>
+        <v>0.0557637195636147</v>
       </c>
       <c r="F5">
-        <v>2.42569975956178</v>
+        <v>0.5692529531781645</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1864712905846915</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7405441825775085</v>
+        <v>0.6386717524822956</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1230960281359899</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1670853668222669</v>
       </c>
       <c r="N5">
-        <v>1.301628588241101</v>
+        <v>1.067238092919494</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.864393331766664</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.592411461644815</v>
+        <v>0.7700023311659834</v>
       </c>
       <c r="C6">
-        <v>0.6607016912287804</v>
+        <v>0.1242627238212783</v>
       </c>
       <c r="D6">
-        <v>0.01860691885383758</v>
+        <v>0.05965614885457171</v>
       </c>
       <c r="E6">
-        <v>0.08530821753425144</v>
+        <v>0.05573309720695363</v>
       </c>
       <c r="F6">
-        <v>2.415894783666275</v>
+        <v>0.5683044209408337</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.18545327657705</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7352608633931368</v>
+        <v>0.6341059416017458</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1225480254167906</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1660086646620478</v>
       </c>
       <c r="N6">
-        <v>1.303042788716382</v>
+        <v>1.069235274408168</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.863223334880729</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.720552887915858</v>
+        <v>0.807566326528331</v>
       </c>
       <c r="C7">
-        <v>0.6947692441400193</v>
+        <v>0.1247230146706606</v>
       </c>
       <c r="D7">
-        <v>0.01941865441722257</v>
+        <v>0.06124688255759736</v>
       </c>
       <c r="E7">
-        <v>0.08866336172248168</v>
+        <v>0.05595172334707676</v>
       </c>
       <c r="F7">
-        <v>2.484456150240433</v>
+        <v>0.5749722056467164</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1925564598684559</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7720535845288765</v>
+        <v>0.6658021842604995</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1263638972913412</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1734916240964779</v>
       </c>
       <c r="N7">
-        <v>1.293399834541688</v>
+        <v>1.055473215871102</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.871617969809236</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.297771691984224</v>
+        <v>0.9740914378377283</v>
       </c>
       <c r="C8">
-        <v>0.8482083974462284</v>
+        <v>0.1267848452822022</v>
       </c>
       <c r="D8">
-        <v>0.02303270230189369</v>
+        <v>0.06822660904607147</v>
       </c>
       <c r="E8">
-        <v>0.1038612325432702</v>
+        <v>0.0570703963231427</v>
       </c>
       <c r="F8">
-        <v>2.800619691399618</v>
+        <v>0.6065509922212087</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2249126607100891</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9377797992210901</v>
+        <v>0.8058475148885407</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1435182129300756</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2067669926902482</v>
       </c>
       <c r="N8">
-        <v>1.255364056986892</v>
+        <v>0.997274045700685</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.915657865523485</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.486243060118568</v>
+        <v>1.304300127961938</v>
       </c>
       <c r="C9">
-        <v>1.164302202399085</v>
+        <v>0.1309462702439461</v>
       </c>
       <c r="D9">
-        <v>0.03026834513848797</v>
+        <v>0.08178642270243586</v>
       </c>
       <c r="E9">
-        <v>0.1354680031498461</v>
+        <v>0.05985433982265143</v>
       </c>
       <c r="F9">
-        <v>3.48203601017326</v>
+        <v>0.6770236930691098</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2930315167688207</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.279039928132192</v>
+        <v>1.081787161351741</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1784513015166524</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2731463140294821</v>
       </c>
       <c r="N9">
-        <v>1.199543689291204</v>
+        <v>0.8926558365535548</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.029477936842341</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.409818325485503</v>
+        <v>1.550076189802752</v>
       </c>
       <c r="C10">
-        <v>1.410325843321232</v>
+        <v>0.1340845769449857</v>
       </c>
       <c r="D10">
-        <v>0.03571317697950604</v>
+        <v>0.09168810890681556</v>
       </c>
       <c r="E10">
-        <v>0.1602280039416542</v>
+        <v>0.0622966847715869</v>
       </c>
       <c r="F10">
-        <v>4.034021238332542</v>
+        <v>0.7348174488818131</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3470779551396248</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.544336698643448</v>
+        <v>1.286025477021155</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2050672810213712</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3228196375579842</v>
       </c>
       <c r="N10">
-        <v>1.172797637568323</v>
+        <v>0.8220020091240503</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.132169397280677</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.845158982301257</v>
+        <v>1.662799430154763</v>
       </c>
       <c r="C11">
-        <v>1.526452887898017</v>
+        <v>0.1355320563051663</v>
       </c>
       <c r="D11">
-        <v>0.03822842218571765</v>
+        <v>0.09618348381408026</v>
       </c>
       <c r="E11">
-        <v>0.1719426885766921</v>
+        <v>0.06350268954651384</v>
       </c>
       <c r="F11">
-        <v>4.29998734952423</v>
+        <v>0.762606468566446</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3728410796623365</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.669431005390535</v>
+        <v>1.379434137022145</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.217420292941739</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3456653709512381</v>
       </c>
       <c r="N11">
-        <v>1.164484121909652</v>
+        <v>0.7913051278686254</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.18357727280835</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.012617026466046</v>
+        <v>1.705636403249343</v>
       </c>
       <c r="C12">
-        <v>1.571153134275562</v>
+        <v>0.1360832306553519</v>
       </c>
       <c r="D12">
-        <v>0.03918741042315332</v>
+        <v>0.09788481268850546</v>
       </c>
       <c r="E12">
-        <v>0.1764551734669197</v>
+        <v>0.06397379525935065</v>
       </c>
       <c r="F12">
-        <v>4.403207623127741</v>
+        <v>0.7733617716829997</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3827967503356575</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.717558059305603</v>
+        <v>1.414892057156919</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2221366781610215</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3543567771850462</v>
       </c>
       <c r="N12">
-        <v>1.161966011373977</v>
+        <v>0.7798974800972456</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.203767893775961</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.976428748470084</v>
+        <v>1.69640365577726</v>
       </c>
       <c r="C13">
-        <v>1.561491745411274</v>
+        <v>0.1359643867082667</v>
       </c>
       <c r="D13">
-        <v>0.03898056746744061</v>
+        <v>0.09751843907258717</v>
       </c>
       <c r="E13">
-        <v>0.17547972879062</v>
+        <v>0.06387168036023283</v>
       </c>
       <c r="F13">
-        <v>4.38085940954474</v>
+        <v>0.7710348190504845</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3806431968800723</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.707157225483684</v>
+        <v>1.407251493289209</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2211191500937275</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3524830651193014</v>
       </c>
       <c r="N13">
-        <v>1.162478966660871</v>
+        <v>0.7823445390858268</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.199386490678137</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.85888103520432</v>
+        <v>1.666320511085559</v>
       </c>
       <c r="C14">
-        <v>1.530115106237361</v>
+        <v>0.1355773395552262</v>
       </c>
       <c r="D14">
-        <v>0.03830718173985304</v>
+        <v>0.09632347076868086</v>
       </c>
       <c r="E14">
-        <v>0.1723123300674629</v>
+        <v>0.06354115421650874</v>
       </c>
       <c r="F14">
-        <v>4.30842683197767</v>
+        <v>0.7634865603065037</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3736559435765088</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.673374512467248</v>
+        <v>1.3823494709616</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2178075201826317</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3463795857656251</v>
       </c>
       <c r="N14">
-        <v>1.164263849071318</v>
+        <v>0.7903622195221995</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.185223575243668</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.787232324655747</v>
+        <v>1.647913985409815</v>
       </c>
       <c r="C15">
-        <v>1.510994384805031</v>
+        <v>0.1353406645858612</v>
       </c>
       <c r="D15">
-        <v>0.03789559509083773</v>
+        <v>0.0955914012862138</v>
       </c>
       <c r="E15">
-        <v>0.1703825273320305</v>
+        <v>0.06334059842181716</v>
       </c>
       <c r="F15">
-        <v>4.264397869229072</v>
+        <v>0.7588937892703598</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3694030484164017</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.65278412144157</v>
+        <v>1.367107914238375</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2157841754279275</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3426464023766798</v>
       </c>
       <c r="N15">
-        <v>1.165441655764269</v>
+        <v>0.7953017632850887</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.176644112388772</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.381707944692891</v>
+        <v>1.542729542361769</v>
       </c>
       <c r="C16">
-        <v>1.402831209320539</v>
+        <v>0.1339903960787723</v>
       </c>
       <c r="D16">
-        <v>0.03554965390104314</v>
+        <v>0.09139417194590038</v>
       </c>
       <c r="E16">
-        <v>0.1594724445277578</v>
+        <v>0.06221984460675145</v>
       </c>
       <c r="F16">
-        <v>4.016968929971654</v>
+        <v>0.7330329285163586</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3454204568459431</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.536260256277529</v>
+        <v>1.27993225004866</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2042651952237406</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3213319972851778</v>
       </c>
       <c r="N16">
-        <v>1.173424701082098</v>
+        <v>0.8240379306957273</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.128908299837718</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.137102841208844</v>
+        <v>1.478450690516581</v>
       </c>
       <c r="C17">
-        <v>1.337634370168814</v>
+        <v>0.1331672638724868</v>
       </c>
       <c r="D17">
-        <v>0.03412098570079536</v>
+        <v>0.08881723299737843</v>
       </c>
       <c r="E17">
-        <v>0.152902670677598</v>
+        <v>0.0615571499997607</v>
       </c>
       <c r="F17">
-        <v>3.869230174169303</v>
+        <v>0.7175634685419325</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3310296105636183</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.465987267313906</v>
+        <v>1.226590593333185</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1972637740636998</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.3083231400715789</v>
       </c>
       <c r="N17">
-        <v>1.179359290957066</v>
+        <v>0.8420426550599416</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.100859592737208</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.997814769827016</v>
+        <v>1.441564430968896</v>
       </c>
       <c r="C18">
-        <v>1.300522880514393</v>
+        <v>0.1326956756528332</v>
       </c>
       <c r="D18">
-        <v>0.0333027958811698</v>
+        <v>0.08733418324940345</v>
       </c>
       <c r="E18">
-        <v>0.1491655982220301</v>
+        <v>0.0611848763906675</v>
       </c>
       <c r="F18">
-        <v>3.785628861034866</v>
+        <v>0.7088058115731499</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3228610910436203</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.425974775516664</v>
+        <v>1.195956000121583</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1932596180068771</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.3008639543245835</v>
       </c>
       <c r="N18">
-        <v>1.18313021179415</v>
+        <v>0.8525338331919947</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.085165346320053</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.950883372468013</v>
+        <v>1.429089456995484</v>
       </c>
       <c r="C19">
-        <v>1.288020855126774</v>
+        <v>0.1325363171688849</v>
       </c>
       <c r="D19">
-        <v>0.0330263512434712</v>
+        <v>0.08683189064743857</v>
       </c>
       <c r="E19">
-        <v>0.1479071276182751</v>
+        <v>0.06106033548399736</v>
       </c>
       <c r="F19">
-        <v>3.757548631198944</v>
+        <v>0.7058641661650285</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3201131907566861</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.412493654239654</v>
+        <v>1.185591155968751</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1919077115024663</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2983422513271705</v>
       </c>
       <c r="N19">
-        <v>1.184466262176628</v>
+        <v>0.8561089462158922</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.079925445832913</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.162993516150777</v>
+        <v>1.48528432852379</v>
       </c>
       <c r="C20">
-        <v>1.344533718514242</v>
+        <v>0.1332546943220905</v>
       </c>
       <c r="D20">
-        <v>0.03427269648908293</v>
+        <v>0.08909163960549193</v>
       </c>
       <c r="E20">
-        <v>0.1535976421441916</v>
+        <v>0.06162676943744216</v>
       </c>
       <c r="F20">
-        <v>3.884812525051245</v>
+        <v>0.7191956150258463</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3325500836879201</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.473425031552964</v>
+        <v>1.232264030815429</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1980066964778189</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3097055266837572</v>
       </c>
       <c r="N20">
-        <v>1.178690032151678</v>
+        <v>0.8401119514520197</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.10379968634021</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.893333311794038</v>
+        <v>1.675152399990566</v>
       </c>
       <c r="C21">
-        <v>1.539310441354758</v>
+        <v>0.1356909404192095</v>
       </c>
       <c r="D21">
-        <v>0.03850478571240501</v>
+        <v>0.0966744856954449</v>
       </c>
       <c r="E21">
-        <v>0.1732404979101148</v>
+        <v>0.06363784016384955</v>
       </c>
       <c r="F21">
-        <v>4.329630839164309</v>
+        <v>0.765697226045134</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3757025811366503</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.683275706980098</v>
+        <v>1.389661343651909</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2187791520962463</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3481711973954305</v>
       </c>
       <c r="N21">
-        <v>1.163721819537983</v>
+        <v>0.7880012797799054</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.189363524865712</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.386075659435903</v>
+        <v>1.800132849769369</v>
       </c>
       <c r="C22">
-        <v>1.670907642034251</v>
+        <v>0.1373010211875965</v>
       </c>
       <c r="D22">
-        <v>0.04130929025303232</v>
+        <v>0.1016248089865499</v>
       </c>
       <c r="E22">
-        <v>0.1865302234256419</v>
+        <v>0.06503661648671155</v>
       </c>
       <c r="F22">
-        <v>4.635160049228318</v>
+        <v>0.7974507519565606</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4050873426685655</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.824906953181753</v>
+        <v>1.493038716975832</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2325816419594844</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3735474466467537</v>
       </c>
       <c r="N22">
-        <v>1.15765633580709</v>
+        <v>0.7552110088840003</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.249526960677656</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.121522266883346</v>
+        <v>1.733340292895633</v>
       </c>
       <c r="C23">
-        <v>1.600233280005511</v>
+        <v>0.1364399890369441</v>
       </c>
       <c r="D23">
-        <v>0.03980856694720103</v>
+        <v>0.09898312256934361</v>
       </c>
       <c r="E23">
-        <v>0.1793915917299742</v>
+        <v>0.06428207460901803</v>
       </c>
       <c r="F23">
-        <v>4.47060042112409</v>
+        <v>0.780372850212359</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3892845711801272</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.748859773524273</v>
+        <v>1.437812710186563</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2251931231825637</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3599804724045015</v>
       </c>
       <c r="N23">
-        <v>1.160524999810278</v>
+        <v>0.7725927418022636</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.217011458244798</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.151284203063028</v>
+        <v>1.482194628816615</v>
       </c>
       <c r="C24">
-        <v>1.341413376218554</v>
+        <v>0.1332151619171782</v>
       </c>
       <c r="D24">
-        <v>0.03420409823939252</v>
+        <v>0.0889675851772509</v>
       </c>
       <c r="E24">
-        <v>0.1532833218648761</v>
+        <v>0.06159526739100407</v>
       </c>
       <c r="F24">
-        <v>3.877763610871142</v>
+        <v>0.7184572994259781</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3318623530646931</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.470061217592445</v>
+        <v>1.229698970387233</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1976707559220046</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3090804884169742</v>
       </c>
       <c r="N24">
-        <v>1.178991491293743</v>
+        <v>0.8409843870864258</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.102469130175791</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.15715854661596</v>
+        <v>1.214484784142286</v>
       </c>
       <c r="C25">
-        <v>1.076733357276339</v>
+        <v>0.1298069766684691</v>
       </c>
       <c r="D25">
-        <v>0.028291383765783</v>
+        <v>0.07813007962370477</v>
       </c>
       <c r="E25">
-        <v>0.1266826101446199</v>
+        <v>0.05903430727392767</v>
       </c>
       <c r="F25">
-        <v>3.289795694387919</v>
+        <v>0.6569635020579057</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.273994004290472</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.184535042820357</v>
+        <v>1.006927587969358</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.16884633123437</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2550466682285766</v>
       </c>
       <c r="N25">
-        <v>1.212367276622018</v>
+        <v>0.9198987585238942</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.995515040875517</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_5/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.01942559813395</v>
+        <v>0.5971311412731097</v>
       </c>
       <c r="C2">
-        <v>0.1273511953257369</v>
+        <v>0.1924353492518591</v>
       </c>
       <c r="D2">
-        <v>0.0701085465722997</v>
+        <v>0.0526970135717022</v>
       </c>
       <c r="E2">
-        <v>0.05741213495999808</v>
+        <v>0.1283788784727697</v>
       </c>
       <c r="F2">
-        <v>0.6156573393350371</v>
+        <v>1.056645474702407</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8438568517780141</v>
+        <v>0.297797895826875</v>
       </c>
       <c r="L2">
-        <v>0.1482480226074472</v>
+        <v>0.1908954316181024</v>
       </c>
       <c r="M2">
-        <v>0.2158515529872993</v>
+        <v>0.1672341601680216</v>
       </c>
       <c r="N2">
-        <v>0.9821341873214688</v>
+        <v>2.058920891053175</v>
       </c>
       <c r="O2">
-        <v>1.929367056215369</v>
+        <v>3.80778335846091</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8881987070050741</v>
+        <v>0.5617636639495345</v>
       </c>
       <c r="C3">
-        <v>0.1257173893578596</v>
+        <v>0.1918725758464177</v>
       </c>
       <c r="D3">
-        <v>0.06464038686127083</v>
+        <v>0.05072020776029262</v>
       </c>
       <c r="E3">
-        <v>0.05646482117067997</v>
+        <v>0.1288173709435192</v>
       </c>
       <c r="F3">
-        <v>0.5898742027532364</v>
+        <v>1.056773709657563</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7337021563859736</v>
+        <v>0.2653995575084167</v>
       </c>
       <c r="L3">
-        <v>0.1346243956156385</v>
+        <v>0.1883031288397063</v>
       </c>
       <c r="M3">
-        <v>0.1895840267461892</v>
+        <v>0.1606412002114723</v>
       </c>
       <c r="N3">
-        <v>1.026754031135614</v>
+        <v>2.078227358966034</v>
       </c>
       <c r="O3">
-        <v>1.891629684954552</v>
+        <v>3.821891200383845</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8080062476840908</v>
+        <v>0.5402721185319592</v>
       </c>
       <c r="C4">
-        <v>0.1247284170669332</v>
+        <v>0.1915311518132796</v>
       </c>
       <c r="D4">
-        <v>0.06126547355975731</v>
+        <v>0.04949122407847995</v>
       </c>
       <c r="E4">
-        <v>0.05595436409312704</v>
+        <v>0.1291335681084753</v>
       </c>
       <c r="F4">
-        <v>0.5750513701978548</v>
+        <v>1.057390381255011</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6661731351188251</v>
+        <v>0.2455342934939893</v>
       </c>
       <c r="L4">
-        <v>0.1264087132189005</v>
+        <v>0.1868017948968728</v>
       </c>
       <c r="M4">
-        <v>0.1735793136793831</v>
+        <v>0.156667128646923</v>
       </c>
       <c r="N4">
-        <v>1.055313548735615</v>
+        <v>2.090690007394027</v>
       </c>
       <c r="O4">
-        <v>1.871719921677084</v>
+        <v>3.83233153525569</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7754102231480147</v>
+        <v>0.5315711090181878</v>
       </c>
       <c r="C5">
-        <v>0.1243288633788495</v>
+        <v>0.1913930744892447</v>
       </c>
       <c r="D5">
-        <v>0.05988556567550063</v>
+        <v>0.04898659570397257</v>
       </c>
       <c r="E5">
-        <v>0.0557637195636147</v>
+        <v>0.1292742507469953</v>
       </c>
       <c r="F5">
-        <v>0.5692529531781645</v>
+        <v>1.057777067769408</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6386717524822956</v>
+        <v>0.2374463671372808</v>
       </c>
       <c r="L5">
-        <v>0.1230960281359899</v>
+        <v>0.1862127748914162</v>
       </c>
       <c r="M5">
-        <v>0.1670853668222669</v>
+        <v>0.155066396244095</v>
       </c>
       <c r="N5">
-        <v>1.067238092919494</v>
+        <v>2.09592165782551</v>
       </c>
       <c r="O5">
-        <v>1.864393331766664</v>
+        <v>3.837033474484059</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7700023311659834</v>
+        <v>0.530129771082926</v>
       </c>
       <c r="C6">
-        <v>0.1242627238212783</v>
+        <v>0.1913702111918987</v>
       </c>
       <c r="D6">
-        <v>0.05965614885457171</v>
+        <v>0.04890257313588364</v>
       </c>
       <c r="E6">
-        <v>0.05573309720695363</v>
+        <v>0.1292983260959915</v>
       </c>
       <c r="F6">
-        <v>0.5683044209408337</v>
+        <v>1.057849457388762</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6341059416017458</v>
+        <v>0.2361038284505668</v>
       </c>
       <c r="L6">
-        <v>0.1225480254167906</v>
+        <v>0.1861163467261875</v>
       </c>
       <c r="M6">
-        <v>0.1660086646620478</v>
+        <v>0.1548017308078187</v>
       </c>
       <c r="N6">
-        <v>1.069235274408168</v>
+        <v>2.096799612436003</v>
       </c>
       <c r="O6">
-        <v>1.863223334880729</v>
+        <v>3.837841259993681</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.807566326528331</v>
+        <v>0.5401545422300273</v>
       </c>
       <c r="C7">
-        <v>0.1247230146706606</v>
+        <v>0.191529285351745</v>
       </c>
       <c r="D7">
-        <v>0.06124688255759736</v>
+        <v>0.04948443387566215</v>
       </c>
       <c r="E7">
-        <v>0.05595172334707676</v>
+        <v>0.1291354174775332</v>
       </c>
       <c r="F7">
-        <v>0.5749722056467164</v>
+        <v>1.057395047905985</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6658021842604995</v>
+        <v>0.2454251866438568</v>
       </c>
       <c r="L7">
-        <v>0.1263638972913412</v>
+        <v>0.1867937588201869</v>
       </c>
       <c r="M7">
-        <v>0.1734916240964779</v>
+        <v>0.1566454646000999</v>
       </c>
       <c r="N7">
-        <v>1.055473215871102</v>
+        <v>2.090759943645171</v>
       </c>
       <c r="O7">
-        <v>1.871617969809236</v>
+        <v>3.832393135265278</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9740914378377283</v>
+        <v>0.5848902359443571</v>
       </c>
       <c r="C8">
-        <v>0.1267848452822022</v>
+        <v>0.1922404610958424</v>
       </c>
       <c r="D8">
-        <v>0.06822660904607147</v>
+        <v>0.05201858002074289</v>
       </c>
       <c r="E8">
-        <v>0.0570703963231427</v>
+        <v>0.1285203363893306</v>
       </c>
       <c r="F8">
-        <v>0.6065509922212087</v>
+        <v>1.056578110902407</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8058475148885407</v>
+        <v>0.2866214993042036</v>
       </c>
       <c r="L8">
-        <v>0.1435182129300756</v>
+        <v>0.1899828919965003</v>
       </c>
       <c r="M8">
-        <v>0.2067669926902482</v>
+        <v>0.1649456105346871</v>
       </c>
       <c r="N8">
-        <v>0.997274045700685</v>
+        <v>2.065451509691917</v>
       </c>
       <c r="O8">
-        <v>1.915657865523485</v>
+        <v>3.812278885906579</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.304300127961938</v>
+        <v>0.6743749815216802</v>
       </c>
       <c r="C9">
-        <v>0.1309462702439461</v>
+        <v>0.193666997782401</v>
       </c>
       <c r="D9">
-        <v>0.08178642270243586</v>
+        <v>0.05686666414143104</v>
       </c>
       <c r="E9">
-        <v>0.05985433982265143</v>
+        <v>0.1276859123110565</v>
       </c>
       <c r="F9">
-        <v>0.6770236930691098</v>
+        <v>1.059240366617011</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.081787161351741</v>
+        <v>0.3676102577205995</v>
       </c>
       <c r="L9">
-        <v>0.1784513015166524</v>
+        <v>0.1969512646504583</v>
       </c>
       <c r="M9">
-        <v>0.2731463140294821</v>
+        <v>0.1818053654811038</v>
       </c>
       <c r="N9">
-        <v>0.8926558365535548</v>
+        <v>2.020646882275122</v>
       </c>
       <c r="O9">
-        <v>2.029477936842341</v>
+        <v>3.786931994741565</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.550076189802752</v>
+        <v>0.7411701001496738</v>
       </c>
       <c r="C10">
-        <v>0.1340845769449857</v>
+        <v>0.1947336084718572</v>
       </c>
       <c r="D10">
-        <v>0.09168810890681556</v>
+        <v>0.06035401061168244</v>
       </c>
       <c r="E10">
-        <v>0.0622966847715869</v>
+        <v>0.1272984062128035</v>
       </c>
       <c r="F10">
-        <v>0.7348174488818131</v>
+        <v>1.063792412862043</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.286025477021155</v>
+        <v>0.4272222574185207</v>
       </c>
       <c r="L10">
-        <v>0.2050672810213712</v>
+        <v>0.202504045389361</v>
       </c>
       <c r="M10">
-        <v>0.3228196375579842</v>
+        <v>0.1945435030926106</v>
       </c>
       <c r="N10">
-        <v>0.8220020091240503</v>
+        <v>1.990666286348555</v>
       </c>
       <c r="O10">
-        <v>2.132169397280677</v>
+        <v>3.776892552694818</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.662799430154763</v>
+        <v>0.7717809948944137</v>
       </c>
       <c r="C11">
-        <v>0.1355320563051663</v>
+        <v>0.1952226733131539</v>
       </c>
       <c r="D11">
-        <v>0.09618348381408026</v>
+        <v>0.06192420767465023</v>
       </c>
       <c r="E11">
-        <v>0.06350268954651384</v>
+        <v>0.1271708716254984</v>
       </c>
       <c r="F11">
-        <v>0.762606468566446</v>
+        <v>1.066426347129152</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.379434137022145</v>
+        <v>0.454362425134633</v>
       </c>
       <c r="L11">
-        <v>0.217420292941739</v>
+        <v>0.2051237213648136</v>
       </c>
       <c r="M11">
-        <v>0.3456653709512381</v>
+        <v>0.2004138683314736</v>
       </c>
       <c r="N11">
-        <v>0.7913051278686254</v>
+        <v>1.977664267174015</v>
       </c>
       <c r="O11">
-        <v>2.18357727280835</v>
+        <v>3.774187001787482</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.705636403249343</v>
+        <v>0.783404461173177</v>
       </c>
       <c r="C12">
-        <v>0.1360832306553519</v>
+        <v>0.1954084061647663</v>
       </c>
       <c r="D12">
-        <v>0.09788481268850546</v>
+        <v>0.06251645292115882</v>
       </c>
       <c r="E12">
-        <v>0.06397379525935065</v>
+        <v>0.1271295672909858</v>
       </c>
       <c r="F12">
-        <v>0.7733617716829997</v>
+        <v>1.067504647034937</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.414892057156919</v>
+        <v>0.464642555866476</v>
       </c>
       <c r="L12">
-        <v>0.2221366781610215</v>
+        <v>0.2061291401727061</v>
       </c>
       <c r="M12">
-        <v>0.3543567771850462</v>
+        <v>0.2026476106202111</v>
       </c>
       <c r="N12">
-        <v>0.7798974800972456</v>
+        <v>1.972832212803326</v>
       </c>
       <c r="O12">
-        <v>2.203767893775961</v>
+        <v>3.773429925600311</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.69640365577726</v>
+        <v>0.7808997362418211</v>
       </c>
       <c r="C13">
-        <v>0.1359643867082667</v>
+        <v>0.1953683818153351</v>
       </c>
       <c r="D13">
-        <v>0.09751843907258717</v>
+        <v>0.06238900738151898</v>
       </c>
       <c r="E13">
-        <v>0.06387168036023283</v>
+        <v>0.1271381523288042</v>
       </c>
       <c r="F13">
-        <v>0.7710348190504845</v>
+        <v>1.067268820010895</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.407251493289209</v>
+        <v>0.4624284316229819</v>
       </c>
       <c r="L13">
-        <v>0.2211191500937275</v>
+        <v>0.2059120101633169</v>
       </c>
       <c r="M13">
-        <v>0.3524830651193014</v>
+        <v>0.2021660576078688</v>
       </c>
       <c r="N13">
-        <v>0.7823445390858268</v>
+        <v>1.973868810952698</v>
       </c>
       <c r="O13">
-        <v>2.199386490678137</v>
+        <v>3.773581083710127</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.666320511085559</v>
+        <v>0.7727366310934656</v>
       </c>
       <c r="C14">
-        <v>0.1355773395552262</v>
+        <v>0.1952379430679514</v>
       </c>
       <c r="D14">
-        <v>0.09632347076868086</v>
+        <v>0.06197297936176227</v>
       </c>
       <c r="E14">
-        <v>0.06354115421650874</v>
+        <v>0.1271673335071526</v>
       </c>
       <c r="F14">
-        <v>0.7634865603065037</v>
+        <v>1.066513439003174</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.3823494709616</v>
+        <v>0.4552081255426117</v>
       </c>
       <c r="L14">
-        <v>0.2178075201826317</v>
+        <v>0.2052061695213752</v>
       </c>
       <c r="M14">
-        <v>0.3463795857656251</v>
+        <v>0.2005974246849505</v>
       </c>
       <c r="N14">
-        <v>0.7903622195221995</v>
+        <v>1.977264896621692</v>
       </c>
       <c r="O14">
-        <v>2.185223575243668</v>
+        <v>3.774119357669946</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.647913985409815</v>
+        <v>0.7677406139069376</v>
       </c>
       <c r="C15">
-        <v>0.1353406645858612</v>
+        <v>0.1951581145924095</v>
       </c>
       <c r="D15">
-        <v>0.0955914012862138</v>
+        <v>0.06171784291297655</v>
       </c>
       <c r="E15">
-        <v>0.06334059842181716</v>
+        <v>0.1271861175924514</v>
       </c>
       <c r="F15">
-        <v>0.7588937892703598</v>
+        <v>1.066061277133457</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.367107914238375</v>
+        <v>0.4507858219684522</v>
       </c>
       <c r="L15">
-        <v>0.2157841754279275</v>
+        <v>0.2047755653740779</v>
       </c>
       <c r="M15">
-        <v>0.3426464023766798</v>
+        <v>0.1996379895488047</v>
       </c>
       <c r="N15">
-        <v>0.7953017632850887</v>
+        <v>1.979357017700412</v>
       </c>
       <c r="O15">
-        <v>2.176644112388772</v>
+        <v>3.774483890428712</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.542729542361769</v>
+        <v>0.7391740886671698</v>
       </c>
       <c r="C16">
-        <v>0.1339903960787723</v>
+        <v>0.1947017228442718</v>
       </c>
       <c r="D16">
-        <v>0.09139417194590038</v>
+        <v>0.06025106632855426</v>
       </c>
       <c r="E16">
-        <v>0.06221984460675145</v>
+        <v>0.1273077201193136</v>
       </c>
       <c r="F16">
-        <v>0.7330329285163586</v>
+        <v>1.063631603329782</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.27993225004866</v>
+        <v>0.425448992883986</v>
       </c>
       <c r="L16">
-        <v>0.2042651952237406</v>
+        <v>0.2023347228509493</v>
       </c>
       <c r="M16">
-        <v>0.3213319972851778</v>
+        <v>0.1941613738473436</v>
       </c>
       <c r="N16">
-        <v>0.8240379306957273</v>
+        <v>1.991528805310841</v>
       </c>
       <c r="O16">
-        <v>2.128908299837718</v>
+        <v>3.777106805329964</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.478450690516581</v>
+        <v>0.7217067441532663</v>
       </c>
       <c r="C17">
-        <v>0.1331672638724868</v>
+        <v>0.1944227150797886</v>
       </c>
       <c r="D17">
-        <v>0.08881723299737843</v>
+        <v>0.05934707739869083</v>
       </c>
       <c r="E17">
-        <v>0.0615571499997607</v>
+        <v>0.1273947902348631</v>
       </c>
       <c r="F17">
-        <v>0.7175634685419325</v>
+        <v>1.062285252098377</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.226590593333185</v>
+        <v>0.4099110581730088</v>
       </c>
       <c r="L17">
-        <v>0.1972637740636998</v>
+        <v>0.2008612925735207</v>
       </c>
       <c r="M17">
-        <v>0.3083231400715789</v>
+        <v>0.1908209519803279</v>
       </c>
       <c r="N17">
-        <v>0.8420426550599416</v>
+        <v>1.999158794897243</v>
       </c>
       <c r="O17">
-        <v>2.100859592737208</v>
+        <v>3.779192485032894</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.441564430968896</v>
+        <v>0.7116812490530151</v>
       </c>
       <c r="C18">
-        <v>0.1326956756528332</v>
+        <v>0.1942626015570355</v>
       </c>
       <c r="D18">
-        <v>0.08733418324940345</v>
+        <v>0.05882560206748622</v>
       </c>
       <c r="E18">
-        <v>0.0611848763906675</v>
+        <v>0.1274494598057263</v>
       </c>
       <c r="F18">
-        <v>0.7088058115731499</v>
+        <v>1.061563882147468</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.195956000121583</v>
+        <v>0.4009761833239054</v>
       </c>
       <c r="L18">
-        <v>0.1932596180068771</v>
+        <v>0.2000226368923563</v>
       </c>
       <c r="M18">
-        <v>0.3008639543245835</v>
+        <v>0.1889067646117439</v>
       </c>
       <c r="N18">
-        <v>0.8525338331919947</v>
+        <v>2.003607253207344</v>
       </c>
       <c r="O18">
-        <v>2.085165346320053</v>
+        <v>3.780567333431634</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.429089456995484</v>
+        <v>0.7082904593763999</v>
       </c>
       <c r="C19">
-        <v>0.1325363171688849</v>
+        <v>0.1942084530649737</v>
       </c>
       <c r="D19">
-        <v>0.08683189064743857</v>
+        <v>0.05864877828365422</v>
       </c>
       <c r="E19">
-        <v>0.06106033548399736</v>
+        <v>0.1274687587540608</v>
       </c>
       <c r="F19">
-        <v>0.7058641661650285</v>
+        <v>1.061328747182934</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.185591155968751</v>
+        <v>0.3979513693470267</v>
       </c>
       <c r="L19">
-        <v>0.1919077115024663</v>
+        <v>0.1997401998166453</v>
       </c>
       <c r="M19">
-        <v>0.2983422513271705</v>
+        <v>0.1882598829399882</v>
       </c>
       <c r="N19">
-        <v>0.8561089462158922</v>
+        <v>2.005123710121826</v>
       </c>
       <c r="O19">
-        <v>2.079925445832913</v>
+        <v>3.781062934361728</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.48528432852379</v>
+        <v>0.7235639771267302</v>
       </c>
       <c r="C20">
-        <v>0.1332546943220905</v>
+        <v>0.1944523783689505</v>
       </c>
       <c r="D20">
-        <v>0.08909163960549193</v>
+        <v>0.0594434665392285</v>
       </c>
       <c r="E20">
-        <v>0.06162676943744216</v>
+        <v>0.1273850466516659</v>
       </c>
       <c r="F20">
-        <v>0.7191956150258463</v>
+        <v>1.062423087278844</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.232264030815429</v>
+        <v>0.4115648804274485</v>
       </c>
       <c r="L20">
-        <v>0.1980066964778189</v>
+        <v>0.2010172291431758</v>
       </c>
       <c r="M20">
-        <v>0.3097055266837572</v>
+        <v>0.1911758080665678</v>
       </c>
       <c r="N20">
-        <v>0.8401119514520197</v>
+        <v>1.998340370879911</v>
       </c>
       <c r="O20">
-        <v>2.10379968634021</v>
+        <v>3.778952327753245</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.675152399990566</v>
+        <v>0.7751334753958758</v>
       </c>
       <c r="C21">
-        <v>0.1356909404192095</v>
+        <v>0.1952762417412117</v>
       </c>
       <c r="D21">
-        <v>0.0966744856954449</v>
+        <v>0.06209524095272201</v>
       </c>
       <c r="E21">
-        <v>0.06363784016384955</v>
+        <v>0.127158572726227</v>
       </c>
       <c r="F21">
-        <v>0.765697226045134</v>
+        <v>1.066733118282983</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.389661343651909</v>
+        <v>0.4573288339641124</v>
       </c>
       <c r="L21">
-        <v>0.2187791520962463</v>
+        <v>0.2054131287787868</v>
       </c>
       <c r="M21">
-        <v>0.3481711973954305</v>
+        <v>0.2010578791196664</v>
       </c>
       <c r="N21">
-        <v>0.7880012797799054</v>
+        <v>1.976264899653275</v>
       </c>
       <c r="O21">
-        <v>2.189363524865712</v>
+        <v>3.773953996568792</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.800132849769369</v>
+        <v>0.8090220938199764</v>
       </c>
       <c r="C22">
-        <v>0.1373010211875965</v>
+        <v>0.1958177908865224</v>
       </c>
       <c r="D22">
-        <v>0.1016248089865499</v>
+        <v>0.06381459554161495</v>
       </c>
       <c r="E22">
-        <v>0.06503661648671155</v>
+        <v>0.1270512945969884</v>
       </c>
       <c r="F22">
-        <v>0.7974507519565606</v>
+        <v>1.070021392605696</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.493038716975832</v>
+        <v>0.4872539609882551</v>
       </c>
       <c r="L22">
-        <v>0.2325816419594844</v>
+        <v>0.208364202605793</v>
       </c>
       <c r="M22">
-        <v>0.3735474466467537</v>
+        <v>0.2075790563325484</v>
       </c>
       <c r="N22">
-        <v>0.7552110088840003</v>
+        <v>1.9623708139013</v>
       </c>
       <c r="O22">
-        <v>2.249526960677656</v>
+        <v>3.772246143260304</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.733340292895633</v>
+        <v>0.7909183860227529</v>
       </c>
       <c r="C23">
-        <v>0.1364399890369441</v>
+        <v>0.1955284782941149</v>
       </c>
       <c r="D23">
-        <v>0.09898312256934361</v>
+        <v>0.06289820775997157</v>
       </c>
       <c r="E23">
-        <v>0.06428207460901803</v>
+        <v>0.1271048299292303</v>
       </c>
       <c r="F23">
-        <v>0.780372850212359</v>
+        <v>1.068223276733022</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.437812710186563</v>
+        <v>0.4712810758239812</v>
       </c>
       <c r="L23">
-        <v>0.2251931231825637</v>
+        <v>0.206782035348084</v>
       </c>
       <c r="M23">
-        <v>0.3599804724045015</v>
+        <v>0.2040928886248281</v>
       </c>
       <c r="N23">
-        <v>0.7725927418022636</v>
+        <v>1.969737522654237</v>
       </c>
       <c r="O23">
-        <v>2.217011458244798</v>
+        <v>3.773015093655914</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.482194628816615</v>
+        <v>0.7227242699903798</v>
       </c>
       <c r="C24">
-        <v>0.1332151619171782</v>
+        <v>0.1944389666863842</v>
       </c>
       <c r="D24">
-        <v>0.0889675851772509</v>
+        <v>0.05939989448924621</v>
       </c>
       <c r="E24">
-        <v>0.06159526739100407</v>
+        <v>0.1273894373591045</v>
       </c>
       <c r="F24">
-        <v>0.7184572994259781</v>
+        <v>1.062360607937521</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.229698970387233</v>
+        <v>0.4108171932975608</v>
       </c>
       <c r="L24">
-        <v>0.1976707559220046</v>
+        <v>0.2009467039288779</v>
       </c>
       <c r="M24">
-        <v>0.3090804884169742</v>
+        <v>0.1910153581038827</v>
       </c>
       <c r="N24">
-        <v>0.8409843870864258</v>
+        <v>1.998710187638434</v>
       </c>
       <c r="O24">
-        <v>2.102469130175791</v>
+        <v>3.779060355349259</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.214484784142286</v>
+        <v>0.649980945936079</v>
       </c>
       <c r="C25">
-        <v>0.1298069766684691</v>
+        <v>0.1932777604034968</v>
       </c>
       <c r="D25">
-        <v>0.07813007962370477</v>
+        <v>0.055568178970411</v>
       </c>
       <c r="E25">
-        <v>0.05903430727392767</v>
+        <v>0.1278719599608173</v>
       </c>
       <c r="F25">
-        <v>0.6569635020579057</v>
+        <v>1.058063999417158</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.006927587969358</v>
+        <v>0.3456803888757349</v>
       </c>
       <c r="L25">
-        <v>0.16884633123437</v>
+        <v>0.1949898972847279</v>
       </c>
       <c r="M25">
-        <v>0.2550466682285766</v>
+        <v>0.1771823592733277</v>
       </c>
       <c r="N25">
-        <v>0.9198987585238942</v>
+        <v>2.03225159848947</v>
       </c>
       <c r="O25">
-        <v>1.995515040875517</v>
+        <v>3.792280953399711</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_5/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5971311412731097</v>
+        <v>1.019425598133893</v>
       </c>
       <c r="C2">
-        <v>0.1924353492518591</v>
+        <v>0.1273511953255664</v>
       </c>
       <c r="D2">
-        <v>0.0526970135717022</v>
+        <v>0.07010854657219312</v>
       </c>
       <c r="E2">
-        <v>0.1283788784727697</v>
+        <v>0.0574121349599892</v>
       </c>
       <c r="F2">
-        <v>1.056645474702407</v>
+        <v>0.6156573393350442</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.297797895826875</v>
+        <v>0.8438568517780993</v>
       </c>
       <c r="L2">
-        <v>0.1908954316181024</v>
+        <v>0.1482480226075253</v>
       </c>
       <c r="M2">
-        <v>0.1672341601680216</v>
+        <v>0.2158515529872993</v>
       </c>
       <c r="N2">
-        <v>2.058920891053175</v>
+        <v>0.9821341873215239</v>
       </c>
       <c r="O2">
-        <v>3.80778335846091</v>
+        <v>1.929367056215398</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5617636639495345</v>
+        <v>0.8881987070050741</v>
       </c>
       <c r="C3">
-        <v>0.1918725758464177</v>
+        <v>0.1257173893578596</v>
       </c>
       <c r="D3">
-        <v>0.05072020776029262</v>
+        <v>0.06464038686139872</v>
       </c>
       <c r="E3">
-        <v>0.1288173709435192</v>
+        <v>0.05646482117068174</v>
       </c>
       <c r="F3">
-        <v>1.056773709657563</v>
+        <v>0.5898742027532364</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2653995575084167</v>
+        <v>0.7337021563860446</v>
       </c>
       <c r="L3">
-        <v>0.1883031288397063</v>
+        <v>0.1346243956156385</v>
       </c>
       <c r="M3">
-        <v>0.1606412002114723</v>
+        <v>0.1895840267461928</v>
       </c>
       <c r="N3">
-        <v>2.078227358966034</v>
+        <v>1.026754031135615</v>
       </c>
       <c r="O3">
-        <v>3.821891200383845</v>
+        <v>1.891629684954609</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5402721185319592</v>
+        <v>0.8080062476841192</v>
       </c>
       <c r="C4">
-        <v>0.1915311518132796</v>
+        <v>0.1247284170671854</v>
       </c>
       <c r="D4">
-        <v>0.04949122407847995</v>
+        <v>0.06126547355988521</v>
       </c>
       <c r="E4">
-        <v>0.1291335681084753</v>
+        <v>0.05595436409311461</v>
       </c>
       <c r="F4">
-        <v>1.057390381255011</v>
+        <v>0.5750513701978548</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2455342934939893</v>
+        <v>0.6661731351187967</v>
       </c>
       <c r="L4">
-        <v>0.1868017948968728</v>
+        <v>0.1264087132188649</v>
       </c>
       <c r="M4">
-        <v>0.156667128646923</v>
+        <v>0.1735793136793866</v>
       </c>
       <c r="N4">
-        <v>2.090690007394027</v>
+        <v>1.055313548735565</v>
       </c>
       <c r="O4">
-        <v>3.83233153525569</v>
+        <v>1.871719921677041</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5315711090181878</v>
+        <v>0.7754102231479578</v>
       </c>
       <c r="C5">
-        <v>0.1913930744892447</v>
+        <v>0.1243288633787643</v>
       </c>
       <c r="D5">
-        <v>0.04898659570397257</v>
+        <v>0.05988556567557879</v>
       </c>
       <c r="E5">
-        <v>0.1292742507469953</v>
+        <v>0.05576371956358805</v>
       </c>
       <c r="F5">
-        <v>1.057777067769408</v>
+        <v>0.5692529531781574</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2374463671372808</v>
+        <v>0.6386717524822956</v>
       </c>
       <c r="L5">
-        <v>0.1862127748914162</v>
+        <v>0.1230960281359614</v>
       </c>
       <c r="M5">
-        <v>0.155066396244095</v>
+        <v>0.1670853668222527</v>
       </c>
       <c r="N5">
-        <v>2.09592165782551</v>
+        <v>1.067238092919467</v>
       </c>
       <c r="O5">
-        <v>3.837033474484059</v>
+        <v>1.864393331766649</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.530129771082926</v>
+        <v>0.7700023311658413</v>
       </c>
       <c r="C6">
-        <v>0.1913702111918987</v>
+        <v>0.1242627238213636</v>
       </c>
       <c r="D6">
-        <v>0.04890257313588364</v>
+        <v>0.05965614885437276</v>
       </c>
       <c r="E6">
-        <v>0.1292983260959915</v>
+        <v>0.05573309720696784</v>
       </c>
       <c r="F6">
-        <v>1.057849457388762</v>
+        <v>0.5683044209408337</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2361038284505668</v>
+        <v>0.6341059416017885</v>
       </c>
       <c r="L6">
-        <v>0.1861163467261875</v>
+        <v>0.1225480254167977</v>
       </c>
       <c r="M6">
-        <v>0.1548017308078187</v>
+        <v>0.166008664662062</v>
       </c>
       <c r="N6">
-        <v>2.096799612436003</v>
+        <v>1.069235274408124</v>
       </c>
       <c r="O6">
-        <v>3.837841259993681</v>
+        <v>1.863223334880814</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5401545422300273</v>
+        <v>0.8075663265283879</v>
       </c>
       <c r="C7">
-        <v>0.191529285351745</v>
+        <v>0.1247230146705043</v>
       </c>
       <c r="D7">
-        <v>0.04948443387566215</v>
+        <v>0.06124688255800237</v>
       </c>
       <c r="E7">
-        <v>0.1291354174775332</v>
+        <v>0.05595172334707499</v>
       </c>
       <c r="F7">
-        <v>1.057395047905985</v>
+        <v>0.5749722056467093</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2454251866438568</v>
+        <v>0.6658021842604427</v>
       </c>
       <c r="L7">
-        <v>0.1867937588201869</v>
+        <v>0.1263638972913554</v>
       </c>
       <c r="M7">
-        <v>0.1566454646000999</v>
+        <v>0.173491624096485</v>
       </c>
       <c r="N7">
-        <v>2.090759943645171</v>
+        <v>1.055473215871089</v>
       </c>
       <c r="O7">
-        <v>3.832393135265278</v>
+        <v>1.871617969809165</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5848902359443571</v>
+        <v>0.9740914378376431</v>
       </c>
       <c r="C8">
-        <v>0.1922404610958424</v>
+        <v>0.1267848452819607</v>
       </c>
       <c r="D8">
-        <v>0.05201858002074289</v>
+        <v>0.06822660904619227</v>
       </c>
       <c r="E8">
-        <v>0.1285203363893306</v>
+        <v>0.05707039632313382</v>
       </c>
       <c r="F8">
-        <v>1.056578110902407</v>
+        <v>0.6065509922211945</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2866214993042036</v>
+        <v>0.8058475148885123</v>
       </c>
       <c r="L8">
-        <v>0.1899828919965003</v>
+        <v>0.1435182129301751</v>
       </c>
       <c r="M8">
-        <v>0.1649456105346871</v>
+        <v>0.2067669926902376</v>
       </c>
       <c r="N8">
-        <v>2.065451509691917</v>
+        <v>0.9972740457006868</v>
       </c>
       <c r="O8">
-        <v>3.812278885906579</v>
+        <v>1.9156578655234</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6743749815216802</v>
+        <v>1.304300127961994</v>
       </c>
       <c r="C9">
-        <v>0.193666997782401</v>
+        <v>0.1309462702435553</v>
       </c>
       <c r="D9">
-        <v>0.05686666414143104</v>
+        <v>0.08178642270231506</v>
       </c>
       <c r="E9">
-        <v>0.1276859123110565</v>
+        <v>0.05985433982263189</v>
       </c>
       <c r="F9">
-        <v>1.059240366617011</v>
+        <v>0.6770236930691098</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3676102577205995</v>
+        <v>1.08178716135177</v>
       </c>
       <c r="L9">
-        <v>0.1969512646504583</v>
+        <v>0.1784513015166098</v>
       </c>
       <c r="M9">
-        <v>0.1818053654811038</v>
+        <v>0.273146314029475</v>
       </c>
       <c r="N9">
-        <v>2.020646882275122</v>
+        <v>0.8926558365536135</v>
       </c>
       <c r="O9">
-        <v>3.786931994741565</v>
+        <v>2.029477936842397</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7411701001496738</v>
+        <v>1.550076189802866</v>
       </c>
       <c r="C10">
-        <v>0.1947336084718572</v>
+        <v>0.1340845769447725</v>
       </c>
       <c r="D10">
-        <v>0.06035401061168244</v>
+        <v>0.09168810890665213</v>
       </c>
       <c r="E10">
-        <v>0.1272984062128035</v>
+        <v>0.06229668477160999</v>
       </c>
       <c r="F10">
-        <v>1.063792412862043</v>
+        <v>0.7348174488817989</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4272222574185207</v>
+        <v>1.286025477021155</v>
       </c>
       <c r="L10">
-        <v>0.202504045389361</v>
+        <v>0.2050672810213712</v>
       </c>
       <c r="M10">
-        <v>0.1945435030926106</v>
+        <v>0.3228196375579628</v>
       </c>
       <c r="N10">
-        <v>1.990666286348555</v>
+        <v>0.822002009124061</v>
       </c>
       <c r="O10">
-        <v>3.776892552694818</v>
+        <v>2.132169397280649</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7717809948944137</v>
+        <v>1.662799430154735</v>
       </c>
       <c r="C11">
-        <v>0.1952226733131539</v>
+        <v>0.1355320563049318</v>
       </c>
       <c r="D11">
-        <v>0.06192420767465023</v>
+        <v>0.09618348381408026</v>
       </c>
       <c r="E11">
-        <v>0.1271708716254984</v>
+        <v>0.06350268954654581</v>
       </c>
       <c r="F11">
-        <v>1.066426347129152</v>
+        <v>0.7626064685664602</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.454362425134633</v>
+        <v>1.379434137022258</v>
       </c>
       <c r="L11">
-        <v>0.2051237213648136</v>
+        <v>0.2174202929417248</v>
       </c>
       <c r="M11">
-        <v>0.2004138683314736</v>
+        <v>0.345665370951231</v>
       </c>
       <c r="N11">
-        <v>1.977664267174015</v>
+        <v>0.791305127868581</v>
       </c>
       <c r="O11">
-        <v>3.774187001787482</v>
+        <v>2.18357727280835</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.783404461173177</v>
+        <v>1.705636403249315</v>
       </c>
       <c r="C12">
-        <v>0.1954084061647663</v>
+        <v>0.1360832306551174</v>
       </c>
       <c r="D12">
-        <v>0.06251645292115882</v>
+        <v>0.09788481268844151</v>
       </c>
       <c r="E12">
-        <v>0.1271295672909858</v>
+        <v>0.06397379525933644</v>
       </c>
       <c r="F12">
-        <v>1.067504647034937</v>
+        <v>0.7733617716829855</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.464642555866476</v>
+        <v>1.41489205715672</v>
       </c>
       <c r="L12">
-        <v>0.2061291401727061</v>
+        <v>0.2221366781610072</v>
       </c>
       <c r="M12">
-        <v>0.2026476106202111</v>
+        <v>0.3543567771850391</v>
       </c>
       <c r="N12">
-        <v>1.972832212803326</v>
+        <v>0.7798974800972278</v>
       </c>
       <c r="O12">
-        <v>3.773429925600311</v>
+        <v>2.203767893775904</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7808997362418211</v>
+        <v>1.696403655777402</v>
       </c>
       <c r="C13">
-        <v>0.1953683818153351</v>
+        <v>0.1359643867081388</v>
       </c>
       <c r="D13">
-        <v>0.06238900738151898</v>
+        <v>0.09751843907253033</v>
       </c>
       <c r="E13">
-        <v>0.1271381523288042</v>
+        <v>0.06387168036022928</v>
       </c>
       <c r="F13">
-        <v>1.067268820010895</v>
+        <v>0.7710348190504845</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4624284316229819</v>
+        <v>1.407251493289323</v>
       </c>
       <c r="L13">
-        <v>0.2059120101633169</v>
+        <v>0.2211191500936707</v>
       </c>
       <c r="M13">
-        <v>0.2021660576078688</v>
+        <v>0.3524830651193298</v>
       </c>
       <c r="N13">
-        <v>1.973868810952698</v>
+        <v>0.7823445390858303</v>
       </c>
       <c r="O13">
-        <v>3.773581083710127</v>
+        <v>2.199386490678108</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7727366310934656</v>
+        <v>1.666320511085559</v>
       </c>
       <c r="C14">
-        <v>0.1952379430679514</v>
+        <v>0.1355773395552404</v>
       </c>
       <c r="D14">
-        <v>0.06197297936176227</v>
+        <v>0.09632347076875192</v>
       </c>
       <c r="E14">
-        <v>0.1271673335071526</v>
+        <v>0.06354115421650874</v>
       </c>
       <c r="F14">
-        <v>1.066513439003174</v>
+        <v>0.7634865603065322</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4552081255426117</v>
+        <v>1.382349470961543</v>
       </c>
       <c r="L14">
-        <v>0.2052061695213752</v>
+        <v>0.2178075201826744</v>
       </c>
       <c r="M14">
-        <v>0.2005974246849505</v>
+        <v>0.3463795857656322</v>
       </c>
       <c r="N14">
-        <v>1.977264896621692</v>
+        <v>0.7903622195222049</v>
       </c>
       <c r="O14">
-        <v>3.774119357669946</v>
+        <v>2.185223575243612</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7677406139069376</v>
+        <v>1.6479139854099</v>
       </c>
       <c r="C15">
-        <v>0.1951581145924095</v>
+        <v>0.1353406645862094</v>
       </c>
       <c r="D15">
-        <v>0.06171784291297655</v>
+        <v>0.09559140128633459</v>
       </c>
       <c r="E15">
-        <v>0.1271861175924514</v>
+        <v>0.06334059842181716</v>
       </c>
       <c r="F15">
-        <v>1.066061277133457</v>
+        <v>0.7588937892703598</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4507858219684522</v>
+        <v>1.36710791423846</v>
       </c>
       <c r="L15">
-        <v>0.2047755653740779</v>
+        <v>0.2157841754278422</v>
       </c>
       <c r="M15">
-        <v>0.1996379895488047</v>
+        <v>0.3426464023766798</v>
       </c>
       <c r="N15">
-        <v>1.979357017700412</v>
+        <v>0.7953017632850781</v>
       </c>
       <c r="O15">
-        <v>3.774483890428712</v>
+        <v>2.176644112388772</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7391740886671698</v>
+        <v>1.542729542361656</v>
       </c>
       <c r="C16">
-        <v>0.1947017228442718</v>
+        <v>0.1339903960789854</v>
       </c>
       <c r="D16">
-        <v>0.06025106632855426</v>
+        <v>0.09139417194602828</v>
       </c>
       <c r="E16">
-        <v>0.1273077201193136</v>
+        <v>0.06221984460673724</v>
       </c>
       <c r="F16">
-        <v>1.063631603329782</v>
+        <v>0.7330329285163657</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.425448992883986</v>
+        <v>1.279932250048631</v>
       </c>
       <c r="L16">
-        <v>0.2023347228509493</v>
+        <v>0.2042651952237975</v>
       </c>
       <c r="M16">
-        <v>0.1941613738473436</v>
+        <v>0.3213319972851778</v>
       </c>
       <c r="N16">
-        <v>1.991528805310841</v>
+        <v>0.8240379306957308</v>
       </c>
       <c r="O16">
-        <v>3.777106805329964</v>
+        <v>2.12890829983769</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7217067441532663</v>
+        <v>1.478450690516524</v>
       </c>
       <c r="C17">
-        <v>0.1944227150797886</v>
+        <v>0.1331672638727213</v>
       </c>
       <c r="D17">
-        <v>0.05934707739869083</v>
+        <v>0.08881723299736421</v>
       </c>
       <c r="E17">
-        <v>0.1273947902348631</v>
+        <v>0.06155714999975714</v>
       </c>
       <c r="F17">
-        <v>1.062285252098377</v>
+        <v>0.7175634685419396</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4099110581730088</v>
+        <v>1.226590593333128</v>
       </c>
       <c r="L17">
-        <v>0.2008612925735207</v>
+        <v>0.1972637740636713</v>
       </c>
       <c r="M17">
-        <v>0.1908209519803279</v>
+        <v>0.3083231400715718</v>
       </c>
       <c r="N17">
-        <v>1.999158794897243</v>
+        <v>0.8420426550599522</v>
       </c>
       <c r="O17">
-        <v>3.779192485032894</v>
+        <v>2.100859592737294</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7116812490530151</v>
+        <v>1.441564430968896</v>
       </c>
       <c r="C18">
-        <v>0.1942626015570355</v>
+        <v>0.1326956756532809</v>
       </c>
       <c r="D18">
-        <v>0.05882560206748622</v>
+        <v>0.08733418324942477</v>
       </c>
       <c r="E18">
-        <v>0.1274494598057263</v>
+        <v>0.06118487639070302</v>
       </c>
       <c r="F18">
-        <v>1.061563882147468</v>
+        <v>0.708805811573157</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4009761833239054</v>
+        <v>1.195956000121498</v>
       </c>
       <c r="L18">
-        <v>0.2000226368923563</v>
+        <v>0.1932596180068771</v>
       </c>
       <c r="M18">
-        <v>0.1889067646117439</v>
+        <v>0.3008639543245764</v>
       </c>
       <c r="N18">
-        <v>2.003607253207344</v>
+        <v>0.8525338331919734</v>
       </c>
       <c r="O18">
-        <v>3.780567333431634</v>
+        <v>2.085165346320082</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7082904593763999</v>
+        <v>1.429089456995683</v>
       </c>
       <c r="C19">
-        <v>0.1942084530649737</v>
+        <v>0.132536317169361</v>
       </c>
       <c r="D19">
-        <v>0.05864877828365422</v>
+        <v>0.08683189064744568</v>
       </c>
       <c r="E19">
-        <v>0.1274687587540608</v>
+        <v>0.06106033548401335</v>
       </c>
       <c r="F19">
-        <v>1.061328747182934</v>
+        <v>0.7058641661650285</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3979513693470267</v>
+        <v>1.185591155968837</v>
       </c>
       <c r="L19">
-        <v>0.1997401998166453</v>
+        <v>0.1919077115024237</v>
       </c>
       <c r="M19">
-        <v>0.1882598829399882</v>
+        <v>0.2983422513271918</v>
       </c>
       <c r="N19">
-        <v>2.005123710121826</v>
+        <v>0.8561089462158975</v>
       </c>
       <c r="O19">
-        <v>3.781062934361728</v>
+        <v>2.079925445832998</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7235639771267302</v>
+        <v>1.485284328523818</v>
       </c>
       <c r="C20">
-        <v>0.1944523783689505</v>
+        <v>0.133254694321856</v>
       </c>
       <c r="D20">
-        <v>0.0594434665392285</v>
+        <v>0.08909163960549904</v>
       </c>
       <c r="E20">
-        <v>0.1273850466516659</v>
+        <v>0.06162676943744394</v>
       </c>
       <c r="F20">
-        <v>1.062423087278844</v>
+        <v>0.7191956150258392</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4115648804274485</v>
+        <v>1.232264030815429</v>
       </c>
       <c r="L20">
-        <v>0.2010172291431758</v>
+        <v>0.1980066964778899</v>
       </c>
       <c r="M20">
-        <v>0.1911758080665678</v>
+        <v>0.3097055266837927</v>
       </c>
       <c r="N20">
-        <v>1.998340370879911</v>
+        <v>0.8401119514520268</v>
       </c>
       <c r="O20">
-        <v>3.778952327753245</v>
+        <v>2.103799686340182</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7751334753958758</v>
+        <v>1.675152399990537</v>
       </c>
       <c r="C21">
-        <v>0.1952762417412117</v>
+        <v>0.1356909404188755</v>
       </c>
       <c r="D21">
-        <v>0.06209524095272201</v>
+        <v>0.09667448569526016</v>
       </c>
       <c r="E21">
-        <v>0.127158572726227</v>
+        <v>0.06363784016387086</v>
       </c>
       <c r="F21">
-        <v>1.066733118282983</v>
+        <v>0.765697226045134</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4573288339641124</v>
+        <v>1.389661343651795</v>
       </c>
       <c r="L21">
-        <v>0.2054131287787868</v>
+        <v>0.2187791520962605</v>
       </c>
       <c r="M21">
-        <v>0.2010578791196664</v>
+        <v>0.3481711973954305</v>
       </c>
       <c r="N21">
-        <v>1.976264899653275</v>
+        <v>0.7880012797798397</v>
       </c>
       <c r="O21">
-        <v>3.773953996568792</v>
+        <v>2.189363524865712</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8090220938199764</v>
+        <v>1.80013284976954</v>
       </c>
       <c r="C22">
-        <v>0.1958177908865224</v>
+        <v>0.1373010211880583</v>
       </c>
       <c r="D22">
-        <v>0.06381459554161495</v>
+        <v>0.1016248089864362</v>
       </c>
       <c r="E22">
-        <v>0.1270512945969884</v>
+        <v>0.06503661648672221</v>
       </c>
       <c r="F22">
-        <v>1.070021392605696</v>
+        <v>0.7974507519565606</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4872539609882551</v>
+        <v>1.493038716975832</v>
       </c>
       <c r="L22">
-        <v>0.208364202605793</v>
+        <v>0.2325816419594418</v>
       </c>
       <c r="M22">
-        <v>0.2075790563325484</v>
+        <v>0.3735474466467394</v>
       </c>
       <c r="N22">
-        <v>1.9623708139013</v>
+        <v>0.7552110088839985</v>
       </c>
       <c r="O22">
-        <v>3.772246143260304</v>
+        <v>2.249526960677684</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7909183860227529</v>
+        <v>1.733340292895633</v>
       </c>
       <c r="C23">
-        <v>0.1955284782941149</v>
+        <v>0.1364399890367096</v>
       </c>
       <c r="D23">
-        <v>0.06289820775997157</v>
+        <v>0.09898312256928676</v>
       </c>
       <c r="E23">
-        <v>0.1271048299292303</v>
+        <v>0.06428207460902158</v>
       </c>
       <c r="F23">
-        <v>1.068223276733022</v>
+        <v>0.780372850212359</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4712810758239812</v>
+        <v>1.437812710186563</v>
       </c>
       <c r="L23">
-        <v>0.206782035348084</v>
+        <v>0.2251931231825921</v>
       </c>
       <c r="M23">
-        <v>0.2040928886248281</v>
+        <v>0.3599804724045015</v>
       </c>
       <c r="N23">
-        <v>1.969737522654237</v>
+        <v>0.7725927418022795</v>
       </c>
       <c r="O23">
-        <v>3.773015093655914</v>
+        <v>2.21701145824477</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7227242699903798</v>
+        <v>1.482194628816643</v>
       </c>
       <c r="C24">
-        <v>0.1944389666863842</v>
+        <v>0.1332151619172564</v>
       </c>
       <c r="D24">
-        <v>0.05939989448924621</v>
+        <v>0.08896758517720116</v>
       </c>
       <c r="E24">
-        <v>0.1273894373591045</v>
+        <v>0.06159526739098808</v>
       </c>
       <c r="F24">
-        <v>1.062360607937521</v>
+        <v>0.718457299425971</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4108171932975608</v>
+        <v>1.229698970387204</v>
       </c>
       <c r="L24">
-        <v>0.2009467039288779</v>
+        <v>0.1976707559220756</v>
       </c>
       <c r="M24">
-        <v>0.1910153581038827</v>
+        <v>0.3090804884169671</v>
       </c>
       <c r="N24">
-        <v>1.998710187638434</v>
+        <v>0.8409843870864879</v>
       </c>
       <c r="O24">
-        <v>3.779060355349259</v>
+        <v>2.10246913017582</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.649980945936079</v>
+        <v>1.214484784142059</v>
       </c>
       <c r="C25">
-        <v>0.1932777604034968</v>
+        <v>0.1298069766681351</v>
       </c>
       <c r="D25">
-        <v>0.055568178970411</v>
+        <v>0.07813007962382557</v>
       </c>
       <c r="E25">
-        <v>0.1278719599608173</v>
+        <v>0.05903430727392589</v>
       </c>
       <c r="F25">
-        <v>1.058063999417158</v>
+        <v>0.6569635020578914</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3456803888757349</v>
+        <v>1.006927587969528</v>
       </c>
       <c r="L25">
-        <v>0.1949898972847279</v>
+        <v>0.1688463312342421</v>
       </c>
       <c r="M25">
-        <v>0.1771823592733277</v>
+        <v>0.2550466682285659</v>
       </c>
       <c r="N25">
-        <v>2.03225159848947</v>
+        <v>0.9198987585238676</v>
       </c>
       <c r="O25">
-        <v>3.792280953399711</v>
+        <v>1.995515040875546</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019425598133893</v>
+        <v>1.247852681021556</v>
       </c>
       <c r="C2">
-        <v>0.1273511953255664</v>
+        <v>0.3883849428892461</v>
       </c>
       <c r="D2">
-        <v>0.07010854657219312</v>
+        <v>0.09101377442806324</v>
       </c>
       <c r="E2">
-        <v>0.0574121349599892</v>
+        <v>0.1374264067530504</v>
       </c>
       <c r="F2">
-        <v>0.6156573393350442</v>
+        <v>1.875066494675607</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.005877701251125855</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.008890245709613609</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0.8438568517780993</v>
+        <v>0.8795682776147871</v>
       </c>
       <c r="L2">
-        <v>0.1482480226075253</v>
+        <v>0.2152780489598882</v>
       </c>
       <c r="M2">
-        <v>0.2158515529872993</v>
+        <v>1.617681379308152</v>
       </c>
       <c r="N2">
-        <v>0.9821341873215239</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.929367056215398</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.457965750101387</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8881987070050741</v>
+        <v>1.088279672240134</v>
       </c>
       <c r="C3">
-        <v>0.1257173893578596</v>
+        <v>0.339807237532824</v>
       </c>
       <c r="D3">
-        <v>0.06464038686139872</v>
+        <v>0.07919252720880365</v>
       </c>
       <c r="E3">
-        <v>0.05646482117068174</v>
+        <v>0.1198549300588994</v>
       </c>
       <c r="F3">
-        <v>0.5898742027532364</v>
+        <v>1.748763417627217</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.008978723774884512</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01227015018603783</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0.7337021563860446</v>
+        <v>0.8396317041515715</v>
       </c>
       <c r="L3">
-        <v>0.1346243956156385</v>
+        <v>0.1882714312977782</v>
       </c>
       <c r="M3">
-        <v>0.1895840267461928</v>
+        <v>1.412121668050645</v>
       </c>
       <c r="N3">
-        <v>1.026754031135615</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.891629684954609</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1.46992629506309</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8080062476841192</v>
+        <v>0.990154808929816</v>
       </c>
       <c r="C4">
-        <v>0.1247284170671854</v>
+        <v>0.3104654882520776</v>
       </c>
       <c r="D4">
-        <v>0.06126547355988521</v>
+        <v>0.07200373464375076</v>
       </c>
       <c r="E4">
-        <v>0.05595436409311461</v>
+        <v>0.109118218738832</v>
       </c>
       <c r="F4">
-        <v>0.5750513701978548</v>
+        <v>1.671699623817815</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01128897302276781</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01473967312264435</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0.6661731351187967</v>
+        <v>0.8151899008985666</v>
       </c>
       <c r="L4">
-        <v>0.1264087132188649</v>
+        <v>0.1717251811615625</v>
       </c>
       <c r="M4">
-        <v>0.1735793136793866</v>
+        <v>1.286277062116653</v>
       </c>
       <c r="N4">
-        <v>1.055313548735565</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.871719921677041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1.477420779494061</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7754102231479578</v>
+        <v>0.9490675857628332</v>
       </c>
       <c r="C5">
-        <v>0.1243288633787643</v>
+        <v>0.2990221189927809</v>
       </c>
       <c r="D5">
-        <v>0.05988556567557879</v>
+        <v>0.06922522068361303</v>
       </c>
       <c r="E5">
-        <v>0.05576371956358805</v>
+        <v>0.1047972565975002</v>
       </c>
       <c r="F5">
-        <v>0.5692529531781574</v>
+        <v>1.638840215789202</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01233375294346437</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01593342084248528</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0.6386717524822956</v>
+        <v>0.8042000309027415</v>
       </c>
       <c r="L5">
-        <v>0.1230960281359614</v>
+        <v>0.1649448200448305</v>
       </c>
       <c r="M5">
-        <v>0.1670853668222527</v>
+        <v>1.234558612882381</v>
       </c>
       <c r="N5">
-        <v>1.067238092919467</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.864393331766649</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1.479365708003456</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7700023311658413</v>
+        <v>0.9409529640549295</v>
       </c>
       <c r="C6">
-        <v>0.1242627238213636</v>
+        <v>0.2976213577713054</v>
       </c>
       <c r="D6">
-        <v>0.05965614885437276</v>
+        <v>0.06893040171956244</v>
       </c>
       <c r="E6">
-        <v>0.05573309720696784</v>
+        <v>0.1041338219418968</v>
       </c>
       <c r="F6">
-        <v>0.5683044209408337</v>
+        <v>1.631481499487776</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01251995234669187</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0162577442202263</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0.6341059416017885</v>
+        <v>0.8010996355272368</v>
       </c>
       <c r="L6">
-        <v>0.1225480254167977</v>
+        <v>0.1637666787086118</v>
       </c>
       <c r="M6">
-        <v>0.166008664662062</v>
+        <v>1.225352455053695</v>
       </c>
       <c r="N6">
-        <v>1.069235274408124</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.863223334880814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1.478295755464792</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8075663265283879</v>
+        <v>0.9860666446533628</v>
       </c>
       <c r="C7">
-        <v>0.1247230146705043</v>
+        <v>0.3116594582827759</v>
       </c>
       <c r="D7">
-        <v>0.06124688255800237</v>
+        <v>0.07241963906423621</v>
       </c>
       <c r="E7">
-        <v>0.05595172334707499</v>
+        <v>0.1092062747280735</v>
       </c>
       <c r="F7">
-        <v>0.5749722056467093</v>
+        <v>1.666040444243464</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01132035033813748</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01506573253653531</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0.6658021842604427</v>
+        <v>0.8115536674350707</v>
       </c>
       <c r="L7">
-        <v>0.1263638972913554</v>
+        <v>0.171489691088027</v>
       </c>
       <c r="M7">
-        <v>0.173491624096485</v>
+        <v>1.28387287844231</v>
       </c>
       <c r="N7">
-        <v>1.055473215871089</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.871617969809165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1.473651594128818</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9740914378376431</v>
+        <v>1.188123247605887</v>
       </c>
       <c r="C8">
-        <v>0.1267848452819607</v>
+        <v>0.3733253304963853</v>
       </c>
       <c r="D8">
-        <v>0.06822660904619227</v>
+        <v>0.08752808659170341</v>
       </c>
       <c r="E8">
-        <v>0.05707039632313382</v>
+        <v>0.1315504218936923</v>
       </c>
       <c r="F8">
-        <v>0.6065509922211945</v>
+        <v>1.824492563546556</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.006877442274696777</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01033706532640633</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0.8058475148885123</v>
+        <v>0.8611606009934576</v>
       </c>
       <c r="L8">
-        <v>0.1435182129301751</v>
+        <v>0.2057625570093577</v>
       </c>
       <c r="M8">
-        <v>0.2067669926902376</v>
+        <v>1.544425247602788</v>
       </c>
       <c r="N8">
-        <v>0.9972740457006868</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.9156578655234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1.45710791244921</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.304300127961994</v>
+        <v>1.590132045457295</v>
       </c>
       <c r="C9">
-        <v>0.1309462702435553</v>
+        <v>0.4961776609218873</v>
       </c>
       <c r="D9">
-        <v>0.08178642270231506</v>
+        <v>0.1169628336607929</v>
       </c>
       <c r="E9">
-        <v>0.05985433982263189</v>
+        <v>0.1756359316755081</v>
       </c>
       <c r="F9">
-        <v>0.6770236930691098</v>
+        <v>2.149278175774526</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001579859354188251</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.003941305908361947</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>1.08178716135177</v>
+        <v>0.965576150329575</v>
       </c>
       <c r="L9">
-        <v>0.1784513015166098</v>
+        <v>0.2737017481880173</v>
       </c>
       <c r="M9">
-        <v>0.273146314029475</v>
+        <v>2.062419328576567</v>
       </c>
       <c r="N9">
-        <v>0.8926558365536135</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.029477936842397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1.432711872261109</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.550076189802866</v>
+        <v>1.874431985665439</v>
       </c>
       <c r="C10">
-        <v>0.1340845769447725</v>
+        <v>0.5834940321889519</v>
       </c>
       <c r="D10">
-        <v>0.09168810890665213</v>
+        <v>0.1355469618206087</v>
       </c>
       <c r="E10">
-        <v>0.06229668477160999</v>
+        <v>0.1997630797674006</v>
       </c>
       <c r="F10">
-        <v>0.7348174488817989</v>
+        <v>2.35431004239247</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0003182234759839808</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.00176460079350349</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>1.286025477021155</v>
+        <v>1.028052935075451</v>
       </c>
       <c r="L10">
-        <v>0.2050672810213712</v>
+        <v>0.3084788687839364</v>
       </c>
       <c r="M10">
-        <v>0.3228196375579628</v>
+        <v>2.428792027238501</v>
       </c>
       <c r="N10">
-        <v>0.822002009124061</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.132169397280649</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1.399080859263563</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.662799430154735</v>
+        <v>1.913529854834138</v>
       </c>
       <c r="C11">
-        <v>0.1355320563049318</v>
+        <v>0.5653823897391987</v>
       </c>
       <c r="D11">
-        <v>0.09618348381408026</v>
+        <v>0.1135278519459177</v>
       </c>
       <c r="E11">
-        <v>0.06350268954654581</v>
+        <v>0.141220185468736</v>
       </c>
       <c r="F11">
-        <v>0.7626064685664602</v>
+        <v>2.142272764922666</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01888796925232938</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001984586903149399</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>1.379434137022258</v>
+        <v>0.9375264643036516</v>
       </c>
       <c r="L11">
-        <v>0.2174202929417248</v>
+        <v>0.203699231347791</v>
       </c>
       <c r="M11">
-        <v>0.345665370951231</v>
+        <v>2.443104946856465</v>
       </c>
       <c r="N11">
-        <v>0.791305127868581</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.18357727280835</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1.258138313712159</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.705636403249315</v>
+        <v>1.891113567549951</v>
       </c>
       <c r="C12">
-        <v>0.1360832306551174</v>
+        <v>0.5297030355890229</v>
       </c>
       <c r="D12">
-        <v>0.09788481268844151</v>
+        <v>0.09227215264795063</v>
       </c>
       <c r="E12">
-        <v>0.06397379525933644</v>
+        <v>0.09585271249046201</v>
       </c>
       <c r="F12">
-        <v>0.7733617716829855</v>
+        <v>1.936011250337444</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05765155404811395</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001979514846953023</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>1.41489205715672</v>
+        <v>0.85657979111852</v>
       </c>
       <c r="L12">
-        <v>0.2221366781610072</v>
+        <v>0.1286014042685792</v>
       </c>
       <c r="M12">
-        <v>0.3543567771850391</v>
+        <v>2.37910083572433</v>
       </c>
       <c r="N12">
-        <v>0.7798974800972278</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.203767893775904</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1.163451646551778</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.696403655777402</v>
+        <v>1.814573390144176</v>
       </c>
       <c r="C13">
-        <v>0.1359643867081388</v>
+        <v>0.4808087862979846</v>
       </c>
       <c r="D13">
-        <v>0.09751843907253033</v>
+        <v>0.07125536629896345</v>
       </c>
       <c r="E13">
-        <v>0.06387168036022928</v>
+        <v>0.05849262349258666</v>
       </c>
       <c r="F13">
-        <v>0.7710348190504845</v>
+        <v>1.71487205814897</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1136288651794928</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002184598704472407</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>1.407251493289323</v>
+        <v>0.7729984771194367</v>
       </c>
       <c r="L13">
-        <v>0.2211191500936707</v>
+        <v>0.0721244676253292</v>
       </c>
       <c r="M13">
-        <v>0.3524830651193298</v>
+        <v>2.248854628824034</v>
       </c>
       <c r="N13">
-        <v>0.7823445390858303</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.199386490678108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.092452405804046</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.666320511085559</v>
+        <v>1.735895117906011</v>
       </c>
       <c r="C14">
-        <v>0.1355773395552404</v>
+        <v>0.4414401369463974</v>
       </c>
       <c r="D14">
-        <v>0.09632347076875192</v>
+        <v>0.05717252947822971</v>
       </c>
       <c r="E14">
-        <v>0.06354115421650874</v>
+        <v>0.03748768644596545</v>
       </c>
       <c r="F14">
-        <v>0.7634865603065322</v>
+        <v>1.554608621636092</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1632448715485992</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002563114973372471</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>1.382349470961543</v>
+        <v>0.7133625869780147</v>
       </c>
       <c r="L14">
-        <v>0.2178075201826744</v>
+        <v>0.0440723570657191</v>
       </c>
       <c r="M14">
-        <v>0.3463795857656322</v>
+        <v>2.128100170156415</v>
       </c>
       <c r="N14">
-        <v>0.7903622195222049</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.185223575243612</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.054337284834816</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.6479139854099</v>
+        <v>1.704107102267471</v>
       </c>
       <c r="C15">
-        <v>0.1353406645862094</v>
+        <v>0.4295614596419739</v>
       </c>
       <c r="D15">
-        <v>0.09559140128633459</v>
+        <v>0.05369036902919078</v>
       </c>
       <c r="E15">
-        <v>0.06334059842181716</v>
+        <v>0.03294181938497864</v>
       </c>
       <c r="F15">
-        <v>0.7588937892703598</v>
+        <v>1.510173157295583</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.175884475322718</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002855575746497863</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>1.36710791423846</v>
+        <v>0.6969344486834927</v>
       </c>
       <c r="L15">
-        <v>0.2157841754278422</v>
+        <v>0.03861495284344585</v>
       </c>
       <c r="M15">
-        <v>0.3426464023766798</v>
+        <v>2.084366655689507</v>
       </c>
       <c r="N15">
-        <v>0.7953017632850781</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.176644112388772</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.04787151476982</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.542729542361656</v>
+        <v>1.597072213315954</v>
       </c>
       <c r="C16">
-        <v>0.1339903960789854</v>
+        <v>0.403787793574935</v>
       </c>
       <c r="D16">
-        <v>0.09139417194602828</v>
+        <v>0.05090085982902792</v>
       </c>
       <c r="E16">
-        <v>0.06221984460673724</v>
+        <v>0.03163960959113332</v>
       </c>
       <c r="F16">
-        <v>0.7330329285163657</v>
+        <v>1.468664834390466</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.163830439385606</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.003837238525540521</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>1.279932250048631</v>
+        <v>0.6864364988635074</v>
       </c>
       <c r="L16">
-        <v>0.2042651952237975</v>
+        <v>0.03737230092987076</v>
       </c>
       <c r="M16">
-        <v>0.3213319972851778</v>
+        <v>1.955347523545669</v>
       </c>
       <c r="N16">
-        <v>0.8240379306957308</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.12890829983769</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.07393516000645</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.478450690516524</v>
+        <v>1.556472562042046</v>
       </c>
       <c r="C17">
-        <v>0.1331672638727213</v>
+        <v>0.4048041151865789</v>
       </c>
       <c r="D17">
-        <v>0.08881723299736421</v>
+        <v>0.05596517278455337</v>
       </c>
       <c r="E17">
-        <v>0.06155714999975714</v>
+        <v>0.04071783092088133</v>
       </c>
       <c r="F17">
-        <v>0.7175634685419396</v>
+        <v>1.520260552564352</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1264429758575005</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.004435672352670395</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>1.226590593333128</v>
+        <v>0.7094239991303937</v>
       </c>
       <c r="L17">
-        <v>0.1972637740636713</v>
+        <v>0.04907891034189049</v>
       </c>
       <c r="M17">
-        <v>0.3083231400715718</v>
+        <v>1.920115325762794</v>
       </c>
       <c r="N17">
-        <v>0.8420426550599522</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.100859592737294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.113281168673897</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.441564430968896</v>
+        <v>1.570943697796253</v>
       </c>
       <c r="C18">
-        <v>0.1326956756532809</v>
+        <v>0.4282174725980212</v>
       </c>
       <c r="D18">
-        <v>0.08733418324942477</v>
+        <v>0.06913907253828455</v>
       </c>
       <c r="E18">
-        <v>0.06118487639070302</v>
+        <v>0.06439914815002723</v>
       </c>
       <c r="F18">
-        <v>0.708805811573157</v>
+        <v>1.666145869339047</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07358954674499785</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.004304740564980314</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>1.195956000121498</v>
+        <v>0.7681119456074796</v>
       </c>
       <c r="L18">
-        <v>0.1932596180068771</v>
+        <v>0.08345063245803175</v>
       </c>
       <c r="M18">
-        <v>0.3008639543245764</v>
+        <v>1.962577057798882</v>
       </c>
       <c r="N18">
-        <v>0.8525338331919734</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.085165346320082</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.176286641180596</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.429089456995683</v>
+        <v>1.622146068676244</v>
       </c>
       <c r="C19">
-        <v>0.132536317169361</v>
+        <v>0.4712358119440125</v>
       </c>
       <c r="D19">
-        <v>0.08683189064744568</v>
+        <v>0.09026161318692516</v>
       </c>
       <c r="E19">
-        <v>0.06106033548401335</v>
+        <v>0.1055391843414419</v>
       </c>
       <c r="F19">
-        <v>0.7058641661650285</v>
+        <v>1.877777284784884</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02786895557112246</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.004139526263333693</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>1.185591155968837</v>
+        <v>0.8492035951293317</v>
       </c>
       <c r="L19">
-        <v>0.1919077115024237</v>
+        <v>0.1489362433847035</v>
       </c>
       <c r="M19">
-        <v>0.2983422513271918</v>
+        <v>2.062068274048386</v>
       </c>
       <c r="N19">
-        <v>0.8561089462158975</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.079925445832998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1.258290907859731</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.485284328523818</v>
+        <v>1.787928742776302</v>
       </c>
       <c r="C20">
-        <v>0.133254694321856</v>
+        <v>0.5643282736242838</v>
       </c>
       <c r="D20">
-        <v>0.08909163960549904</v>
+        <v>0.1319290119055552</v>
       </c>
       <c r="E20">
-        <v>0.06162676943744394</v>
+        <v>0.1934881597879397</v>
       </c>
       <c r="F20">
-        <v>0.7191956150258392</v>
+        <v>2.282460648075784</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0004821372517684885</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.00302139228971221</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>1.232264030815429</v>
+        <v>1.000204999979985</v>
       </c>
       <c r="L20">
-        <v>0.1980066964778899</v>
+        <v>0.2981942054111215</v>
       </c>
       <c r="M20">
-        <v>0.3097055266837927</v>
+        <v>2.326031383777234</v>
       </c>
       <c r="N20">
-        <v>0.8401119514520268</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.103799686340182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1.396046790987086</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.675152399990537</v>
+        <v>2.023678863002488</v>
       </c>
       <c r="C21">
-        <v>0.1356909404188755</v>
+        <v>0.6426213674430699</v>
       </c>
       <c r="D21">
-        <v>0.09667448569526016</v>
+        <v>0.1519111162772191</v>
       </c>
       <c r="E21">
-        <v>0.06363784016387086</v>
+        <v>0.2257752951766037</v>
       </c>
       <c r="F21">
-        <v>0.765697226045134</v>
+        <v>2.499212526251185</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.342054044346398E-05</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001907194582931204</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>1.389661343651795</v>
+        <v>1.071649192103806</v>
       </c>
       <c r="L21">
-        <v>0.2187791520962605</v>
+        <v>0.3493572072668769</v>
       </c>
       <c r="M21">
-        <v>0.3481711973954305</v>
+        <v>2.636598270531891</v>
       </c>
       <c r="N21">
-        <v>0.7880012797798397</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.189363524865712</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1.396440862594048</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.80013284976954</v>
+        <v>2.178018075485511</v>
       </c>
       <c r="C22">
-        <v>0.1373010211880583</v>
+        <v>0.6892838461217252</v>
       </c>
       <c r="D22">
-        <v>0.1016248089864362</v>
+        <v>0.1625622645182716</v>
       </c>
       <c r="E22">
-        <v>0.06503661648672221</v>
+        <v>0.2423356174673472</v>
       </c>
       <c r="F22">
-        <v>0.7974507519565606</v>
+        <v>2.631046867076719</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.000377378576698284</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.00141184160995067</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>1.493038716975832</v>
+        <v>1.116352603445769</v>
       </c>
       <c r="L22">
-        <v>0.2325816419594418</v>
+        <v>0.3752532757099516</v>
       </c>
       <c r="M22">
-        <v>0.3735474466467394</v>
+        <v>2.834415562635058</v>
       </c>
       <c r="N22">
-        <v>0.7552110088839985</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.249526960677684</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1.39398626107257</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.733340292895633</v>
+        <v>2.099965236680191</v>
       </c>
       <c r="C23">
-        <v>0.1364399890367096</v>
+        <v>0.6626543402966263</v>
       </c>
       <c r="D23">
-        <v>0.09898312256928676</v>
+        <v>0.1563078666871576</v>
       </c>
       <c r="E23">
-        <v>0.06428207460902158</v>
+        <v>0.233305579174619</v>
       </c>
       <c r="F23">
-        <v>0.780372850212359</v>
+        <v>2.566753430292039</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0001380434787612295</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001313057335754486</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>1.437812710186563</v>
+        <v>1.096570852766391</v>
       </c>
       <c r="L23">
-        <v>0.2251931231825921</v>
+        <v>0.361596363473339</v>
       </c>
       <c r="M23">
-        <v>0.3599804724045015</v>
+        <v>2.730844320700584</v>
       </c>
       <c r="N23">
-        <v>0.7725927418022795</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.21701145824477</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1.399466839910247</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.482194628816643</v>
+        <v>1.798315971928218</v>
       </c>
       <c r="C24">
-        <v>0.1332151619172564</v>
+        <v>0.5661211097819034</v>
       </c>
       <c r="D24">
-        <v>0.08896758517720116</v>
+        <v>0.1337438901548751</v>
       </c>
       <c r="E24">
-        <v>0.06159526739098808</v>
+        <v>0.1996845258830078</v>
       </c>
       <c r="F24">
-        <v>0.718457299425971</v>
+        <v>2.316122932698548</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0003234496659256791</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002479426544751639</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>1.229698970387204</v>
+        <v>1.015936617130407</v>
       </c>
       <c r="L24">
-        <v>0.1976707559220756</v>
+        <v>0.3099785306876726</v>
       </c>
       <c r="M24">
-        <v>0.3090804884169671</v>
+        <v>2.3378001541206</v>
       </c>
       <c r="N24">
-        <v>0.8409843870864879</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.10246913017582</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1.414391965372999</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.214484784142059</v>
+        <v>1.47481283530513</v>
       </c>
       <c r="C25">
-        <v>0.1298069766681351</v>
+        <v>0.4648815275190259</v>
       </c>
       <c r="D25">
-        <v>0.07813007962382557</v>
+        <v>0.1097604725230781</v>
       </c>
       <c r="E25">
-        <v>0.05903430727392589</v>
+        <v>0.1639036889079222</v>
       </c>
       <c r="F25">
-        <v>0.6569635020578914</v>
+        <v>2.051326003337806</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.002627741149511476</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.005773610310877864</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>1.006927587969528</v>
+        <v>0.9308925033697548</v>
       </c>
       <c r="L25">
-        <v>0.1688463312342421</v>
+        <v>0.2549744409116812</v>
       </c>
       <c r="M25">
-        <v>0.2550466682285659</v>
+        <v>1.91853052306152</v>
       </c>
       <c r="N25">
-        <v>0.9198987585238676</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.995515040875546</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.432517822689213</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.247852681021556</v>
+        <v>1.110466717150274</v>
       </c>
       <c r="C2">
-        <v>0.3883849428892461</v>
+        <v>0.4484216367826548</v>
       </c>
       <c r="D2">
-        <v>0.09101377442806324</v>
+        <v>0.111198558906807</v>
       </c>
       <c r="E2">
-        <v>0.1374264067530504</v>
+        <v>0.1460859838842161</v>
       </c>
       <c r="F2">
-        <v>1.875066494675607</v>
+        <v>1.643672041362905</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.005877701251125855</v>
+        <v>0.004718328984994247</v>
       </c>
       <c r="I2">
-        <v>0.008890245709613609</v>
+        <v>0.006001720120380583</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.8795682776147871</v>
+        <v>0.7116754105782164</v>
       </c>
       <c r="L2">
-        <v>0.2152780489598882</v>
+        <v>0.3039628108643839</v>
       </c>
       <c r="M2">
-        <v>1.617681379308152</v>
+        <v>0.2322362455251614</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2133835537916013</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.553667165900862</v>
       </c>
       <c r="P2">
-        <v>1.457965750101387</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.263837031198229</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.088279672240134</v>
+        <v>0.9719990111340451</v>
       </c>
       <c r="C3">
-        <v>0.339807237532824</v>
+        <v>0.3915580548437561</v>
       </c>
       <c r="D3">
-        <v>0.07919252720880365</v>
+        <v>0.09618666829067024</v>
       </c>
       <c r="E3">
-        <v>0.1198549300588994</v>
+        <v>0.1275344444919746</v>
       </c>
       <c r="F3">
-        <v>1.748763417627217</v>
+        <v>1.545361390538218</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.008978723774884512</v>
+        <v>0.007358507602390929</v>
       </c>
       <c r="I3">
-        <v>0.01227015018603783</v>
+        <v>0.008397689385934992</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.8396317041515715</v>
+        <v>0.6885818832499382</v>
       </c>
       <c r="L3">
-        <v>0.1882714312977782</v>
+        <v>0.3018349354826384</v>
       </c>
       <c r="M3">
-        <v>1.412121668050645</v>
+        <v>0.2184326798145797</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1873253918048405</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.357960680001952</v>
       </c>
       <c r="P3">
-        <v>1.46992629506309</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.290071463223761</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.990154808929816</v>
+        <v>0.886542262809968</v>
       </c>
       <c r="C4">
-        <v>0.3104654882520776</v>
+        <v>0.3572672690960701</v>
       </c>
       <c r="D4">
-        <v>0.07200373464375076</v>
+        <v>0.08706861779560882</v>
       </c>
       <c r="E4">
-        <v>0.109118218738832</v>
+        <v>0.1161939326849861</v>
       </c>
       <c r="F4">
-        <v>1.671699623817815</v>
+        <v>1.485240357899585</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01128897302276781</v>
+        <v>0.009341247933424238</v>
       </c>
       <c r="I4">
-        <v>0.01473967312264435</v>
+        <v>0.01018268731846073</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.8151899008985666</v>
+        <v>0.6743480574442771</v>
       </c>
       <c r="L4">
-        <v>0.1717251811615625</v>
+        <v>0.3002753969460485</v>
       </c>
       <c r="M4">
-        <v>1.286277062116653</v>
+        <v>0.2107023168038324</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1713359101361718</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.237949090005998</v>
       </c>
       <c r="P4">
-        <v>1.477420779494061</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.306384922328256</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9490675857628332</v>
+        <v>0.8506596737171321</v>
       </c>
       <c r="C5">
-        <v>0.2990221189927809</v>
+        <v>0.3438430525737033</v>
       </c>
       <c r="D5">
-        <v>0.06922522068361303</v>
+        <v>0.08351563438298371</v>
       </c>
       <c r="E5">
-        <v>0.1047972565975002</v>
+        <v>0.1116249618527156</v>
       </c>
       <c r="F5">
-        <v>1.638840215789202</v>
+        <v>1.459416479738408</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.01233375294346437</v>
+        <v>0.01024105078493763</v>
       </c>
       <c r="I5">
-        <v>0.01593342084248528</v>
+        <v>0.01108762644522798</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.8042000309027415</v>
+        <v>0.667664148205418</v>
       </c>
       <c r="L5">
-        <v>0.1649448200448305</v>
+        <v>0.2991955396757362</v>
       </c>
       <c r="M5">
-        <v>1.234558612882381</v>
+        <v>0.2074677675696996</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1647791719039589</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.188594658408533</v>
       </c>
       <c r="P5">
-        <v>1.479365708003456</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.31221504383366</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9409529640549295</v>
+        <v>0.8435418402032155</v>
       </c>
       <c r="C6">
-        <v>0.2976213577713054</v>
+        <v>0.3421179996627473</v>
       </c>
       <c r="D6">
-        <v>0.06893040171956244</v>
+        <v>0.08309800180028759</v>
       </c>
       <c r="E6">
-        <v>0.1041338219418968</v>
+        <v>0.1109182990415327</v>
       </c>
       <c r="F6">
-        <v>1.631481499487776</v>
+        <v>1.45345440758544</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.01251995234669187</v>
+        <v>0.01040145471897401</v>
       </c>
       <c r="I6">
-        <v>0.0162577442202263</v>
+        <v>0.01137583216879001</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.8010996355272368</v>
+        <v>0.6654949833522963</v>
       </c>
       <c r="L6">
-        <v>0.1637666787086118</v>
+        <v>0.2985485350669208</v>
       </c>
       <c r="M6">
-        <v>1.225352455053695</v>
+        <v>0.2066123569578657</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1636409795640148</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.179824375020019</v>
       </c>
       <c r="P6">
-        <v>1.478295755464792</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.312130751978394</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9860666446533628</v>
+        <v>0.882903171203651</v>
       </c>
       <c r="C7">
-        <v>0.3116594582827759</v>
+        <v>0.3584430150938545</v>
       </c>
       <c r="D7">
-        <v>0.07241963906423621</v>
+        <v>0.08748937225445275</v>
       </c>
       <c r="E7">
-        <v>0.1092062747280735</v>
+        <v>0.1162731554415473</v>
       </c>
       <c r="F7">
-        <v>1.666040444243464</v>
+        <v>1.480317737249976</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.01132035033813748</v>
+        <v>0.009367859634751952</v>
       </c>
       <c r="I7">
-        <v>0.01506573253653531</v>
+        <v>0.01053834381677099</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.8115536674350707</v>
+        <v>0.6713748414422795</v>
       </c>
       <c r="L7">
-        <v>0.171489691088027</v>
+        <v>0.299018130107406</v>
       </c>
       <c r="M7">
-        <v>1.28387287844231</v>
+        <v>0.2097393079590297</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1711122955006061</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.235704934222724</v>
       </c>
       <c r="P7">
-        <v>1.473651594128818</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.303611035952656</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.188123247605887</v>
+        <v>1.058600973338514</v>
       </c>
       <c r="C8">
-        <v>0.3733253304963853</v>
+        <v>0.4304928550341742</v>
       </c>
       <c r="D8">
-        <v>0.08752808659170341</v>
+        <v>0.1066295591821103</v>
       </c>
       <c r="E8">
-        <v>0.1315504218936923</v>
+        <v>0.1398656567207759</v>
       </c>
       <c r="F8">
-        <v>1.824492563546556</v>
+        <v>1.603686011482708</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006877442274696777</v>
+        <v>0.005565691496443259</v>
       </c>
       <c r="I8">
-        <v>0.01033706532640633</v>
+        <v>0.007169978625101159</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.8611606009934576</v>
+        <v>0.6999414809745517</v>
       </c>
       <c r="L8">
-        <v>0.2057625570093577</v>
+        <v>0.3017370277560687</v>
       </c>
       <c r="M8">
-        <v>1.544425247602788</v>
+        <v>0.226028895523676</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2042135066950124</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.484031833807364</v>
       </c>
       <c r="P8">
-        <v>1.45710791244921</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.269198882262451</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.590132045457295</v>
+        <v>1.405710680121132</v>
       </c>
       <c r="C9">
-        <v>0.4961776609218873</v>
+        <v>0.5748304680761578</v>
       </c>
       <c r="D9">
-        <v>0.1169628336607929</v>
+        <v>0.1441815032774798</v>
       </c>
       <c r="E9">
-        <v>0.1756359316755081</v>
+        <v>0.1863816883020348</v>
       </c>
       <c r="F9">
-        <v>2.149278175774526</v>
+        <v>1.856351192700785</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.001579859354188251</v>
+        <v>0.001146695714933754</v>
       </c>
       <c r="I9">
-        <v>0.003941305908361947</v>
+        <v>0.002699103184150786</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.965576150329575</v>
+        <v>0.7608062590269853</v>
       </c>
       <c r="L9">
-        <v>0.2737017481880173</v>
+        <v>0.3071292587462437</v>
       </c>
       <c r="M9">
-        <v>2.062419328576567</v>
+        <v>0.2657967652946667</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2696055315827692</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.975907055978126</v>
       </c>
       <c r="P9">
-        <v>1.432711872261109</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>1.208387288473567</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.874431985665439</v>
+        <v>1.650678042159996</v>
       </c>
       <c r="C10">
-        <v>0.5834940321889519</v>
+        <v>0.6773161835713211</v>
       </c>
       <c r="D10">
-        <v>0.1355469618206087</v>
+        <v>0.1681834011931045</v>
       </c>
       <c r="E10">
-        <v>0.1997630797674006</v>
+        <v>0.2119216883437716</v>
       </c>
       <c r="F10">
-        <v>2.35431004239247</v>
+        <v>2.012906632700918</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0003182234759839808</v>
+        <v>0.0002400054801392493</v>
       </c>
       <c r="I10">
-        <v>0.00176460079350349</v>
+        <v>0.001449944447514895</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>1.028052935075451</v>
+        <v>0.7945267708816743</v>
       </c>
       <c r="L10">
-        <v>0.3084788687839364</v>
+        <v>0.3059118332334165</v>
       </c>
       <c r="M10">
-        <v>2.428792027238501</v>
+        <v>0.2945373477169255</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3025980285792542</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.3231121561424</v>
       </c>
       <c r="P10">
-        <v>1.399080859263563</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>1.154339978374956</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.913529854834138</v>
+        <v>1.694787668575174</v>
       </c>
       <c r="C11">
-        <v>0.5653823897391987</v>
+        <v>0.6542342787703603</v>
       </c>
       <c r="D11">
-        <v>0.1135278519459177</v>
+        <v>0.1425989682404492</v>
       </c>
       <c r="E11">
-        <v>0.141220185468736</v>
+        <v>0.1511639501332631</v>
       </c>
       <c r="F11">
-        <v>2.142272764922666</v>
+        <v>1.828350223168371</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01888796925232938</v>
+        <v>0.01881175270182567</v>
       </c>
       <c r="I11">
-        <v>0.001984586903149399</v>
+        <v>0.001925758080770557</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.9375264643036516</v>
+        <v>0.7235602891238031</v>
       </c>
       <c r="L11">
-        <v>0.203699231347791</v>
+        <v>0.274784126236483</v>
       </c>
       <c r="M11">
-        <v>2.443104946856465</v>
+        <v>0.2737390336574137</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1992474336717436</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.340697709566342</v>
       </c>
       <c r="P11">
-        <v>1.258138313712159</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>1.052607992597395</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.891113567549951</v>
+        <v>1.68454996308796</v>
       </c>
       <c r="C12">
-        <v>0.5297030355890229</v>
+        <v>0.6111951218551326</v>
       </c>
       <c r="D12">
-        <v>0.09227215264795063</v>
+        <v>0.1173413517250594</v>
       </c>
       <c r="E12">
-        <v>0.09585271249046201</v>
+        <v>0.1037689412465355</v>
       </c>
       <c r="F12">
-        <v>1.936011250337444</v>
+        <v>1.653279370800277</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05765155404811395</v>
+        <v>0.05754511687392494</v>
       </c>
       <c r="I12">
-        <v>0.001979514846953023</v>
+        <v>0.001920532859085</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.85657979111852</v>
+        <v>0.6633531590076558</v>
       </c>
       <c r="L12">
-        <v>0.1286014042685792</v>
+        <v>0.25175859577773</v>
       </c>
       <c r="M12">
-        <v>2.37910083572433</v>
+        <v>0.2520749049694899</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1256099636551156</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.283394518653665</v>
       </c>
       <c r="P12">
-        <v>1.163451646551778</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.9913510302523214</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.814573390144176</v>
+        <v>1.626975975996771</v>
       </c>
       <c r="C13">
-        <v>0.4808087862979846</v>
+        <v>0.5527900495404481</v>
       </c>
       <c r="D13">
-        <v>0.07125536629896345</v>
+        <v>0.09187276444096426</v>
       </c>
       <c r="E13">
-        <v>0.05849262349258666</v>
+        <v>0.06442771631443378</v>
       </c>
       <c r="F13">
-        <v>1.71487205814897</v>
+        <v>1.468590885758246</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1136288651794928</v>
+        <v>0.1134541773103734</v>
       </c>
       <c r="I13">
-        <v>0.002184598704472407</v>
+        <v>0.001997351520580892</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.7729984771194367</v>
+        <v>0.6034078079543477</v>
       </c>
       <c r="L13">
-        <v>0.0721244676253292</v>
+        <v>0.2313907794150651</v>
       </c>
       <c r="M13">
-        <v>2.248854628824034</v>
+        <v>0.227180746698032</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07063849231856878</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.163009359504628</v>
       </c>
       <c r="P13">
-        <v>1.092452405804046</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.9523976846172459</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.735895117906011</v>
+        <v>1.564580849206408</v>
       </c>
       <c r="C14">
-        <v>0.4414401369463974</v>
+        <v>0.5059157444342191</v>
       </c>
       <c r="D14">
-        <v>0.05717252947822971</v>
+        <v>0.07456455541912277</v>
       </c>
       <c r="E14">
-        <v>0.03748768644596545</v>
+        <v>0.04209568972353317</v>
       </c>
       <c r="F14">
-        <v>1.554608621636092</v>
+        <v>1.335788294473488</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1632448715485992</v>
+        <v>0.1629981088916992</v>
       </c>
       <c r="I14">
-        <v>0.002563114973372471</v>
+        <v>0.002229282941657473</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.7133625869780147</v>
+        <v>0.5614237413409384</v>
       </c>
       <c r="L14">
-        <v>0.0440723570657191</v>
+        <v>0.2180254063759577</v>
       </c>
       <c r="M14">
-        <v>2.128100170156415</v>
+        <v>0.2085167622590447</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04360365604365768</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.050489952363137</v>
       </c>
       <c r="P14">
-        <v>1.054337284834816</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.9356639827607474</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.704107102267471</v>
+        <v>1.538264489819056</v>
       </c>
       <c r="C15">
-        <v>0.4295614596419739</v>
+        <v>0.4917693412247672</v>
       </c>
       <c r="D15">
-        <v>0.05369036902919078</v>
+        <v>0.07020121479185093</v>
       </c>
       <c r="E15">
-        <v>0.03294181938497864</v>
+        <v>0.03722528299278061</v>
       </c>
       <c r="F15">
-        <v>1.510173157295583</v>
+        <v>1.299406684807209</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.175884475322718</v>
+        <v>0.1756047703599819</v>
       </c>
       <c r="I15">
-        <v>0.002855575746497863</v>
+        <v>0.002471061461918111</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.6969344486834927</v>
+        <v>0.5501493537806326</v>
       </c>
       <c r="L15">
-        <v>0.03861495284344585</v>
+        <v>0.2147850885015536</v>
       </c>
       <c r="M15">
-        <v>2.084366655689507</v>
+        <v>0.2030169184882595</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03840759619103196</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.009440847078139</v>
       </c>
       <c r="P15">
-        <v>1.04787151476982</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.9346022749792429</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.597072213315954</v>
+        <v>1.444024262719722</v>
       </c>
       <c r="C16">
-        <v>0.403787793574935</v>
+        <v>0.461722796002249</v>
       </c>
       <c r="D16">
-        <v>0.05090085982902792</v>
+        <v>0.06627083336400119</v>
       </c>
       <c r="E16">
-        <v>0.03163960959113332</v>
+        <v>0.0358134706075095</v>
       </c>
       <c r="F16">
-        <v>1.468664834390466</v>
+        <v>1.269854814074122</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.163830439385606</v>
+        <v>0.1633904244610136</v>
       </c>
       <c r="I16">
-        <v>0.003837238525540521</v>
+        <v>0.003123110211435964</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.6864364988635074</v>
+        <v>0.5464880347015466</v>
       </c>
       <c r="L16">
-        <v>0.03737230092987076</v>
+        <v>0.2172593220014569</v>
       </c>
       <c r="M16">
-        <v>1.955347523545669</v>
+        <v>0.1964532540835684</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03739832163561729</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.886403578302719</v>
       </c>
       <c r="P16">
-        <v>1.07393516000645</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.9614974628760589</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.556472562042046</v>
+        <v>1.404679324543139</v>
       </c>
       <c r="C17">
-        <v>0.4048041151865789</v>
+        <v>0.463379001116266</v>
       </c>
       <c r="D17">
-        <v>0.05596517278455337</v>
+        <v>0.07209681138345303</v>
       </c>
       <c r="E17">
-        <v>0.04071783092088133</v>
+        <v>0.04547757013115472</v>
       </c>
       <c r="F17">
-        <v>1.520260552564352</v>
+        <v>1.316563157881149</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1264429758575005</v>
+        <v>0.1259169690358846</v>
       </c>
       <c r="I17">
-        <v>0.004435672352670395</v>
+        <v>0.003544861575739411</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.7094239991303937</v>
+        <v>0.5656690987277813</v>
       </c>
       <c r="L17">
-        <v>0.04907891034189049</v>
+        <v>0.2265030343316745</v>
       </c>
       <c r="M17">
-        <v>1.920115325762794</v>
+        <v>0.2009497530091195</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04880357750622366</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.851456135805364</v>
       </c>
       <c r="P17">
-        <v>1.113281168673897</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.9907968308141832</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.570943697796253</v>
+        <v>1.410429401655676</v>
       </c>
       <c r="C18">
-        <v>0.4282174725980212</v>
+        <v>0.4917864399342022</v>
       </c>
       <c r="D18">
-        <v>0.06913907253828455</v>
+        <v>0.08785224609046338</v>
       </c>
       <c r="E18">
-        <v>0.06439914815002723</v>
+        <v>0.07049002747315924</v>
       </c>
       <c r="F18">
-        <v>1.666145869339047</v>
+        <v>1.441362613336537</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07358954674499785</v>
+        <v>0.07306587305139089</v>
       </c>
       <c r="I18">
-        <v>0.004304740564980314</v>
+        <v>0.003340205484654746</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.7681119456074796</v>
+        <v>0.6100495372418209</v>
       </c>
       <c r="L18">
-        <v>0.08345063245803175</v>
+        <v>0.244139730817043</v>
       </c>
       <c r="M18">
-        <v>1.962577057798882</v>
+        <v>0.2163373117691805</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0823241773878749</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.889276879773689</v>
       </c>
       <c r="P18">
-        <v>1.176286641180596</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>1.031315868148912</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.622146068676244</v>
+        <v>1.44612031635603</v>
       </c>
       <c r="C19">
-        <v>0.4712358119440125</v>
+        <v>0.543200175152549</v>
       </c>
       <c r="D19">
-        <v>0.09026161318692516</v>
+        <v>0.1131043496942397</v>
       </c>
       <c r="E19">
-        <v>0.1055391843414419</v>
+        <v>0.1135961969501409</v>
       </c>
       <c r="F19">
-        <v>1.877777284784884</v>
+        <v>1.619999341150077</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02786895557112246</v>
+        <v>0.02743596978164931</v>
       </c>
       <c r="I19">
-        <v>0.004139526263333693</v>
+        <v>0.003305238079253314</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>0.8492035951293317</v>
+        <v>0.6695085519722426</v>
       </c>
       <c r="L19">
-        <v>0.1489362433847035</v>
+        <v>0.2665524692909749</v>
       </c>
       <c r="M19">
-        <v>2.062068274048386</v>
+        <v>0.2385359986102387</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.146461582765987</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.980603743382119</v>
       </c>
       <c r="P19">
-        <v>1.258290907859731</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>1.081823688646374</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.787928742776302</v>
+        <v>1.576080920692959</v>
       </c>
       <c r="C20">
-        <v>0.5643282736242838</v>
+        <v>0.6541232912798023</v>
       </c>
       <c r="D20">
-        <v>0.1319290119055552</v>
+        <v>0.1631721521824119</v>
       </c>
       <c r="E20">
-        <v>0.1934881597879397</v>
+        <v>0.2052507859891151</v>
       </c>
       <c r="F20">
-        <v>2.282460648075784</v>
+        <v>1.956347591976197</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0004821372517684885</v>
+        <v>0.0003261644266285835</v>
       </c>
       <c r="I20">
-        <v>0.00302139228971221</v>
+        <v>0.002642171105126323</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>1.000204999979985</v>
+        <v>0.7765673403261459</v>
       </c>
       <c r="L20">
-        <v>0.2981942054111215</v>
+        <v>0.3029808013695714</v>
       </c>
       <c r="M20">
-        <v>2.326031383777234</v>
+        <v>0.2832223795208435</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2928384978318377</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.225996133587216</v>
       </c>
       <c r="P20">
-        <v>1.396046790987086</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>1.160205000325661</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.023678863002488</v>
+        <v>1.776760636606468</v>
       </c>
       <c r="C21">
-        <v>0.6426213674430699</v>
+        <v>0.74647000840244</v>
       </c>
       <c r="D21">
-        <v>0.1519111162772191</v>
+        <v>0.1884558107012282</v>
       </c>
       <c r="E21">
-        <v>0.2257752951766037</v>
+        <v>0.2391319565681584</v>
       </c>
       <c r="F21">
-        <v>2.499212526251185</v>
+        <v>2.126125950944555</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.342054044346398E-05</v>
+        <v>6.570226020041758E-05</v>
       </c>
       <c r="I21">
-        <v>0.001907194582931204</v>
+        <v>0.002068107057616508</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>1.071649192103806</v>
+        <v>0.8195177242089713</v>
       </c>
       <c r="L21">
-        <v>0.3493572072668769</v>
+        <v>0.307967220018547</v>
       </c>
       <c r="M21">
-        <v>2.636598270531891</v>
+        <v>0.3130498557956471</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3421488699374322</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.519095494231209</v>
       </c>
       <c r="P21">
-        <v>1.396440862594048</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>1.135802791864258</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.178018075485511</v>
+        <v>1.90847438112209</v>
       </c>
       <c r="C22">
-        <v>0.6892838461217252</v>
+        <v>0.8017412737102916</v>
       </c>
       <c r="D22">
-        <v>0.1625622645182716</v>
+        <v>0.2022128849522602</v>
       </c>
       <c r="E22">
-        <v>0.2423356174673472</v>
+        <v>0.2565569030904769</v>
       </c>
       <c r="F22">
-        <v>2.631046867076719</v>
+        <v>2.228792751776027</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.000377378576698284</v>
+        <v>0.0004754306731311608</v>
       </c>
       <c r="I22">
-        <v>0.00141184160995067</v>
+        <v>0.001737138919369663</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>1.116352603445769</v>
+        <v>0.8463526521542448</v>
       </c>
       <c r="L22">
-        <v>0.3752532757099516</v>
+        <v>0.3104467008902105</v>
       </c>
       <c r="M22">
-        <v>2.834415562635058</v>
+        <v>0.3328803638554021</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3669005265949608</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.705639851738653</v>
       </c>
       <c r="P22">
-        <v>1.39398626107257</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>1.118524479030881</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.099965236680191</v>
+        <v>1.842010695330004</v>
       </c>
       <c r="C23">
-        <v>0.6626543402966263</v>
+        <v>0.7704752057055657</v>
       </c>
       <c r="D23">
-        <v>0.1563078666871576</v>
+        <v>0.1942716083816975</v>
       </c>
       <c r="E23">
-        <v>0.233305579174619</v>
+        <v>0.2470720772550692</v>
       </c>
       <c r="F23">
-        <v>2.566753430292039</v>
+        <v>2.179230397700451</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0001380434787612295</v>
+        <v>0.0002129426184569461</v>
       </c>
       <c r="I23">
-        <v>0.001313057335754486</v>
+        <v>0.001502686446407608</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>1.096570852766391</v>
+        <v>0.8352914811079373</v>
       </c>
       <c r="L23">
-        <v>0.361596363473339</v>
+        <v>0.3102812111951039</v>
       </c>
       <c r="M23">
-        <v>2.730844320700584</v>
+        <v>0.3235454056985603</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3538444412204456</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.607942187662161</v>
       </c>
       <c r="P23">
-        <v>1.399466839910247</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>1.130606084408022</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.798315971928218</v>
+        <v>1.584218477841603</v>
       </c>
       <c r="C24">
-        <v>0.5661211097819034</v>
+        <v>0.656753844270952</v>
       </c>
       <c r="D24">
-        <v>0.1337438901548751</v>
+        <v>0.1654251222252014</v>
       </c>
       <c r="E24">
-        <v>0.1996845258830078</v>
+        <v>0.2116964963522179</v>
       </c>
       <c r="F24">
-        <v>2.316122932698548</v>
+        <v>1.984993007897742</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0003234496659256791</v>
+        <v>0.0001786101307521548</v>
       </c>
       <c r="I24">
-        <v>0.002479426544751639</v>
+        <v>0.00201483796098767</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>1.015936617130407</v>
+        <v>0.7885962117756762</v>
       </c>
       <c r="L24">
-        <v>0.3099785306876726</v>
+        <v>0.3075309144380256</v>
       </c>
       <c r="M24">
-        <v>2.3378001541206</v>
+        <v>0.2876905232625901</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3044265800492383</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.236694789233013</v>
       </c>
       <c r="P24">
-        <v>1.414391965372999</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>1.172639595544339</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.47481283530513</v>
+        <v>1.306291729034228</v>
       </c>
       <c r="C25">
-        <v>0.4648815275190259</v>
+        <v>0.5376234660113255</v>
       </c>
       <c r="D25">
-        <v>0.1097604725230781</v>
+        <v>0.1347916788174217</v>
       </c>
       <c r="E25">
-        <v>0.1639036889079222</v>
+        <v>0.1739872788504684</v>
       </c>
       <c r="F25">
-        <v>2.051326003337806</v>
+        <v>1.779423600387432</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.002627741149511476</v>
+        <v>0.001999084257465533</v>
       </c>
       <c r="I25">
-        <v>0.005773610310877864</v>
+        <v>0.004163428977353334</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.9308925033697548</v>
+        <v>0.7392417614992439</v>
       </c>
       <c r="L25">
-        <v>0.2549744409116812</v>
+        <v>0.3039311554320747</v>
       </c>
       <c r="M25">
-        <v>1.91853052306152</v>
+        <v>0.2524912213333437</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2516157680314848</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.839568001895998</v>
       </c>
       <c r="P25">
-        <v>1.432517822689213</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.219885533850643</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
